--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_8_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_8_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>937388.8702660718</v>
+        <v>881611.3481234667</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>713587.768411118</v>
+        <v>713587.7684111177</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7774767.419965956</v>
+        <v>7774767.419965954</v>
       </c>
     </row>
     <row r="11">
@@ -667,13 +667,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>81.0053776549329</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>80.83011447495538</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -740,19 +740,19 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>62.48291670214915</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -785,19 +785,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>110.0817264605106</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -858,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>37.10634673358876</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="F5" t="n">
-        <v>69.1170502640262</v>
+        <v>190.3453970742847</v>
       </c>
       <c r="G5" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -986,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1034,13 +1034,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>30.90009710505628</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>238.3383404039074</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1077,10 +1077,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1095,10 +1095,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>68.21015448122991</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V8" t="n">
-        <v>62.24100452231472</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1229,13 +1229,13 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1268,10 +1268,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>141.1252983242763</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>35.00246782997241</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -1335,7 +1335,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1381,13 +1381,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="H11" t="n">
-        <v>234.1536680083896</v>
+        <v>274.622348234285</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1451,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1460,16 +1460,16 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>38.26574940543405</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I12" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1502,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>198.8939788055617</v>
+        <v>170.8308791256285</v>
       </c>
       <c r="U12" t="n">
         <v>225.9206407878966</v>
@@ -1572,22 +1572,22 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>96.06064116356413</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>39.19479062707052</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1618,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1654,13 +1654,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>70.6261198365675</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>107.9467780863828</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1685,13 +1685,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H15" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1739,19 +1739,19 @@
         <v>165.8272126914158</v>
       </c>
       <c r="T15" t="n">
-        <v>159.7836259993104</v>
+        <v>162.3748458607197</v>
       </c>
       <c r="U15" t="n">
         <v>225.9206407878966</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>39.19479062707052</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1809,19 +1809,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>96.06064116356413</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1849,22 +1849,22 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>241.9189633854832</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,22 +1891,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>111.9029976743086</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1925,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>22.75537649088941</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1934,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>94.12001078391287</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>137.0282495084215</v>
@@ -1970,13 +1970,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>165.8272126914158</v>
       </c>
       <c r="T18" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>225.9206407878966</v>
@@ -1988,7 +1988,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2058,16 +2058,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>39.19479062707047</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>38.97640474817496</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,19 +2080,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>86.65804289016263</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>60.33883677318115</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2140,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2159,10 +2159,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>149.4253040461038</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2177,7 +2177,7 @@
         <v>137.0282495084215</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2207,13 +2207,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>165.8272126914158</v>
       </c>
       <c r="T21" t="n">
-        <v>11.49915831057247</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>225.9206407878966</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>106.9147497326711</v>
       </c>
       <c r="T22" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2301,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>98.68313739545462</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2323,19 +2323,19 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>405.7415719969023</v>
+        <v>279.7241161900818</v>
       </c>
       <c r="G23" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2380,13 +2380,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>31.94740982209909</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2396,25 +2396,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>34.31881265622914</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2447,13 +2447,13 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>177.7121654225283</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2520,25 +2520,25 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>64.02970078434429</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>96.06064116356414</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>38.97640474817497</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2563,13 +2563,13 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>257.1613983418119</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2602,25 +2602,25 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U26" t="n">
-        <v>145.1437230760811</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2633,19 +2633,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>6.719253572850839</v>
       </c>
       <c r="F27" t="n">
-        <v>139.4577222705008</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2681,13 +2681,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S27" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U27" t="n">
         <v>225.9206407878966</v>
@@ -2757,25 +2757,25 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>64.02970078434429</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>96.06064116356414</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>38.97640474817497</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>17.95817021688029</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>74.9336884203597</v>
       </c>
     </row>
     <row r="30">
@@ -2879,19 +2879,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>53.00588247258157</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2924,7 +2924,7 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>171.993791997275</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -2936,7 +2936,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>106.0890042129126</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2994,16 +2994,16 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>64.02970078434429</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>34.65343661111039</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T31" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3040,13 +3040,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>343.6518692792703</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="H32" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3076,10 +3076,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T32" t="n">
         <v>220.5164804230398</v>
@@ -3088,10 +3088,10 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>234.1536680083901</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3107,28 +3107,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>9.466786222440129</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>42.42612519902058</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3161,7 +3161,7 @@
         <v>165.8272126914158</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U33" t="n">
         <v>225.9206407878966</v>
@@ -3176,7 +3176,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>106.9147497326712</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3240,13 +3240,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>73.36175976093794</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3277,16 +3277,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="G35" t="n">
-        <v>405.7415719969023</v>
+        <v>399.8885402891422</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>60.84446729808898</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,19 +3313,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3344,16 +3344,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>120.9830058185666</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3395,13 +3395,13 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9206407878966</v>
+        <v>181.7638782208682</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3413,7 +3413,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>160.0903419479084</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.7266695472104</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>10.27077547947476</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3514,13 +3514,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="G38" t="n">
-        <v>405.7415719969024</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3562,16 +3562,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>30.15743961067312</v>
       </c>
       <c r="X38" t="n">
-        <v>158.4267777054077</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3584,19 +3584,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>122.0501874122707</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3629,19 +3629,19 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>6.719253572851135</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -3678,13 +3678,13 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>39.2952677809261</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>74.67247646141475</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3705,7 +3705,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>64.02970078434429</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -3714,10 +3714,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>39.19479062707058</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3739,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>90.32757544504561</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3787,25 +3787,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U41" t="n">
-        <v>141.639626083508</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3818,28 +3818,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>141.812881394527</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>64.06181481010704</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>109.1906224126114</v>
       </c>
       <c r="I42" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3875,16 +3875,16 @@
         <v>198.8939788055617</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>158.2525819861382</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>219.4103988718534</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>106.0890042129127</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3985,19 +3985,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>405.7415719969024</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>405.7415719969024</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>193.4289090289422</v>
+        <v>282.8799678072729</v>
       </c>
       <c r="I44" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,22 +4024,22 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4055,7 +4055,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
@@ -4073,7 +4073,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>33.61070434854845</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>165.8272126914158</v>
@@ -4112,7 +4112,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9206407878966</v>
+        <v>173.5817459848532</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4146,13 +4146,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4179,16 +4179,16 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>64.02970078434427</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>34.65343661111051</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>20.20113705803968</v>
       </c>
       <c r="T46" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>812.6742080953335</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="C2" t="n">
-        <v>812.6742080953335</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="D2" t="n">
-        <v>812.6742080953335</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="E2" t="n">
-        <v>569.2254314512334</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="F2" t="n">
-        <v>487.4018176583718</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G2" t="n">
         <v>243.9530410142718</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>812.6742080953335</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T2" t="n">
-        <v>812.6742080953335</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U2" t="n">
-        <v>812.6742080953335</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="V2" t="n">
-        <v>812.6742080953335</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="W2" t="n">
-        <v>812.6742080953335</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="X2" t="n">
-        <v>812.6742080953335</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="Y2" t="n">
-        <v>812.6742080953335</v>
+        <v>266.3558523848238</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>425.5489231905453</v>
+        <v>852.8634924192114</v>
       </c>
       <c r="C3" t="n">
-        <v>425.5489231905453</v>
+        <v>678.4104631380844</v>
       </c>
       <c r="D3" t="n">
-        <v>425.5489231905453</v>
+        <v>529.4760534768332</v>
       </c>
       <c r="E3" t="n">
-        <v>425.5489231905453</v>
+        <v>370.2385984713777</v>
       </c>
       <c r="F3" t="n">
-        <v>362.4348659156472</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G3" t="n">
         <v>223.7040404982626</v>
@@ -4412,49 +4412,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>234.810827406191</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>660.701031422288</v>
+        <v>852.8634924192114</v>
       </c>
       <c r="V3" t="n">
-        <v>425.5489231905453</v>
+        <v>852.8634924192114</v>
       </c>
       <c r="W3" t="n">
-        <v>425.5489231905453</v>
+        <v>852.8634924192114</v>
       </c>
       <c r="X3" t="n">
-        <v>425.5489231905453</v>
+        <v>852.8634924192114</v>
       </c>
       <c r="Y3" t="n">
-        <v>425.5489231905453</v>
+        <v>852.8634924192114</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="J4" t="n">
         <v>19.28114311021272</v>
@@ -4506,34 +4506,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>113.583345248266</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>113.583345248266</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>113.583345248266</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>113.583345248266</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>113.583345248266</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>113.583345248266</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>113.583345248266</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>348.0024326625565</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C5" t="n">
-        <v>348.0024326625565</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D5" t="n">
-        <v>348.0024326625565</v>
+        <v>710.516763498309</v>
       </c>
       <c r="E5" t="n">
-        <v>104.5536560184564</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F5" t="n">
-        <v>34.73845373156126</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4591,28 +4591,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U5" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V5" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W5" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X5" t="n">
-        <v>348.0024326625565</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y5" t="n">
-        <v>348.0024326625565</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>395.6002882963414</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="C6" t="n">
-        <v>395.6002882963414</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="D6" t="n">
-        <v>395.6002882963414</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="E6" t="n">
-        <v>395.6002882963414</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="F6" t="n">
-        <v>249.0657303232264</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4649,13 +4649,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N6" t="n">
         <v>542.809531908403</v>
@@ -4682,16 +4682,16 @@
         <v>634.6640077999109</v>
       </c>
       <c r="V6" t="n">
-        <v>603.4517885018743</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W6" t="n">
-        <v>603.4517885018743</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="X6" t="n">
-        <v>395.6002882963414</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="Y6" t="n">
-        <v>395.6002882963414</v>
+        <v>158.7661011803829</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4743,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>285.1327311248648</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="C8" t="n">
-        <v>285.1327311248648</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="D8" t="n">
-        <v>285.1327311248648</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="E8" t="n">
-        <v>41.68395448076474</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="F8" t="n">
-        <v>34.73845373156126</v>
+        <v>115.7075889192809</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>100.2502782979324</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>100.2502782979324</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4834,22 +4834,22 @@
         <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>591.4512093066566</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U8" t="n">
-        <v>591.4512093066566</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V8" t="n">
-        <v>528.5815077689649</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="W8" t="n">
-        <v>285.1327311248648</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="X8" t="n">
-        <v>285.1327311248648</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="Y8" t="n">
-        <v>285.1327311248648</v>
+        <v>122.6530896684844</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>109.5807722530562</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="C9" t="n">
-        <v>109.5807722530562</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="D9" t="n">
-        <v>109.5807722530562</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="E9" t="n">
-        <v>109.5807722530562</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F9" t="n">
-        <v>109.5807722530562</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G9" t="n">
-        <v>109.5807722530562</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H9" t="n">
-        <v>109.5807722530562</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>234.810827406191</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4916,19 +4916,19 @@
         <v>487.2836868729568</v>
       </c>
       <c r="U9" t="n">
-        <v>344.732880484799</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V9" t="n">
-        <v>109.5807722530562</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="W9" t="n">
-        <v>109.5807722530562</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="X9" t="n">
-        <v>109.5807722530562</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="Y9" t="n">
-        <v>109.5807722530562</v>
+        <v>223.7040404982626</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.77557929797318</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="C10" t="n">
-        <v>41.77557929797318</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="D10" t="n">
-        <v>41.77557929797318</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="E10" t="n">
-        <v>41.77557929797318</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="F10" t="n">
-        <v>41.77557929797318</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="G10" t="n">
-        <v>41.77557929797318</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="H10" t="n">
-        <v>41.77557929797318</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="I10" t="n">
-        <v>41.77557929797318</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="J10" t="n">
         <v>41.77557929797318</v>
@@ -4983,31 +4983,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="V10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="W10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="X10" t="n">
-        <v>41.77557929797318</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="Y10" t="n">
-        <v>41.77557929797318</v>
+        <v>64.03213664411894</v>
       </c>
     </row>
     <row r="11">
@@ -5020,55 +5020,55 @@
         <v>1088.658125761969</v>
       </c>
       <c r="C11" t="n">
-        <v>1088.658125761969</v>
+        <v>719.6956088215577</v>
       </c>
       <c r="D11" t="n">
-        <v>1088.658125761969</v>
+        <v>719.6956088215577</v>
       </c>
       <c r="E11" t="n">
-        <v>1088.658125761969</v>
+        <v>719.6956088215577</v>
       </c>
       <c r="F11" t="n">
-        <v>678.8181540479259</v>
+        <v>719.6956088215577</v>
       </c>
       <c r="G11" t="n">
-        <v>268.9781823338831</v>
+        <v>309.8556371075148</v>
       </c>
       <c r="H11" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I11" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J11" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K11" t="n">
-        <v>247.3580469011319</v>
+        <v>247.358046901132</v>
       </c>
       <c r="L11" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528327</v>
       </c>
       <c r="M11" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941458</v>
       </c>
       <c r="N11" t="n">
         <v>1148.836227140252</v>
       </c>
       <c r="O11" t="n">
-        <v>1396.31758174832</v>
+        <v>1396.317581748321</v>
       </c>
       <c r="P11" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q11" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R11" t="n">
-        <v>1508.970645214177</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="S11" t="n">
-        <v>1311.402045381201</v>
+        <v>1311.402045381202</v>
       </c>
       <c r="T11" t="n">
         <v>1088.658125761969</v>
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>288.8593477001497</v>
+        <v>317.205913033416</v>
       </c>
       <c r="C12" t="n">
-        <v>288.8593477001497</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="D12" t="n">
-        <v>288.8593477001497</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="E12" t="n">
-        <v>288.8593477001497</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="F12" t="n">
-        <v>250.2070755734487</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="G12" t="n">
-        <v>111.7947023326189</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="H12" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I12" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J12" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K12" t="n">
-        <v>236.9655055809357</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L12" t="n">
-        <v>236.9655055809357</v>
+        <v>505.9483651585072</v>
       </c>
       <c r="M12" t="n">
-        <v>546.7891136313474</v>
+        <v>905.3665017627702</v>
       </c>
       <c r="N12" t="n">
-        <v>948.4732699082806</v>
+        <v>948.4732699082808</v>
       </c>
       <c r="O12" t="n">
         <v>1271.486777082839</v>
       </c>
       <c r="P12" t="n">
-        <v>1513.730526286846</v>
+        <v>1513.730526286847</v>
       </c>
       <c r="Q12" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R12" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S12" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="T12" t="n">
-        <v>1422.063279093102</v>
+        <v>1450.409844426369</v>
       </c>
       <c r="U12" t="n">
-        <v>1193.860611630581</v>
+        <v>1222.207176963847</v>
       </c>
       <c r="V12" t="n">
-        <v>958.708503398838</v>
+        <v>987.0550687321042</v>
       </c>
       <c r="W12" t="n">
-        <v>704.4711466706365</v>
+        <v>732.8177120039027</v>
       </c>
       <c r="X12" t="n">
-        <v>496.6196464651036</v>
+        <v>524.9662117983698</v>
       </c>
       <c r="Y12" t="n">
-        <v>288.8593477001497</v>
+        <v>317.205913033416</v>
       </c>
     </row>
     <row r="13">
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C13" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D13" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E13" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F13" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G13" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H13" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I13" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J13" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K13" t="n">
-        <v>40.81344334191284</v>
+        <v>40.81344334191287</v>
       </c>
       <c r="L13" t="n">
         <v>107.0302722280248</v>
@@ -5211,40 +5211,40 @@
         <v>187.235757098444</v>
       </c>
       <c r="N13" t="n">
-        <v>270.9687512285709</v>
+        <v>270.968751228571</v>
       </c>
       <c r="O13" t="n">
         <v>332.2934283710737</v>
       </c>
       <c r="P13" t="n">
-        <v>361.2466016029501</v>
+        <v>361.2466016029502</v>
       </c>
       <c r="Q13" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029502</v>
       </c>
       <c r="R13" t="n">
-        <v>129.490276430019</v>
+        <v>361.2466016029502</v>
       </c>
       <c r="S13" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029502</v>
       </c>
       <c r="T13" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029502</v>
       </c>
       <c r="U13" t="n">
-        <v>32.45932575975218</v>
+        <v>72.05002336285372</v>
       </c>
       <c r="V13" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="W13" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="X13" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y13" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>401.4218427001639</v>
+        <v>442.299297473795</v>
       </c>
       <c r="C14" t="n">
-        <v>32.45932575975218</v>
+        <v>442.299297473795</v>
       </c>
       <c r="D14" t="n">
-        <v>32.45932575975218</v>
+        <v>442.299297473795</v>
       </c>
       <c r="E14" t="n">
-        <v>32.45932575975218</v>
+        <v>442.299297473795</v>
       </c>
       <c r="F14" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G14" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H14" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I14" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J14" t="n">
         <v>70.13987180521508</v>
       </c>
       <c r="K14" t="n">
-        <v>247.3580469011318</v>
+        <v>247.358046901132</v>
       </c>
       <c r="L14" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528327</v>
       </c>
       <c r="M14" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941458</v>
       </c>
       <c r="N14" t="n">
         <v>1148.836227140252</v>
       </c>
       <c r="O14" t="n">
-        <v>1396.31758174832</v>
+        <v>1396.317581748321</v>
       </c>
       <c r="P14" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q14" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R14" t="n">
-        <v>1551.626773001177</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="S14" t="n">
-        <v>1551.626773001177</v>
+        <v>1311.402045381202</v>
       </c>
       <c r="T14" t="n">
-        <v>1551.626773001177</v>
+        <v>1202.364895798997</v>
       </c>
       <c r="U14" t="n">
-        <v>1551.626773001177</v>
+        <v>1202.364895798997</v>
       </c>
       <c r="V14" t="n">
-        <v>1551.626773001177</v>
+        <v>1202.364895798997</v>
       </c>
       <c r="W14" t="n">
-        <v>1551.626773001177</v>
+        <v>1202.364895798997</v>
       </c>
       <c r="X14" t="n">
-        <v>1178.161014740097</v>
+        <v>828.8991375379169</v>
       </c>
       <c r="Y14" t="n">
-        <v>788.0216827642857</v>
+        <v>828.8991375379169</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>368.6228182982707</v>
+        <v>640.7936959160752</v>
       </c>
       <c r="C15" t="n">
-        <v>368.6228182982707</v>
+        <v>466.3406666349482</v>
       </c>
       <c r="D15" t="n">
-        <v>368.6228182982707</v>
+        <v>317.4062569736969</v>
       </c>
       <c r="E15" t="n">
-        <v>368.6228182982707</v>
+        <v>317.4062569736969</v>
       </c>
       <c r="F15" t="n">
-        <v>222.0882603251556</v>
+        <v>170.8716990005819</v>
       </c>
       <c r="G15" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H15" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I15" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J15" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K15" t="n">
-        <v>236.9655055809357</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="L15" t="n">
-        <v>534.6972605625989</v>
+        <v>256.6067387278472</v>
       </c>
       <c r="M15" t="n">
-        <v>934.1153971668618</v>
+        <v>656.0248753321102</v>
       </c>
       <c r="N15" t="n">
-        <v>1335.799553443795</v>
+        <v>1057.709031609044</v>
       </c>
       <c r="O15" t="n">
-        <v>1622.966287987609</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P15" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="Q15" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R15" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S15" t="n">
         <v>1455.464052945775</v>
       </c>
       <c r="T15" t="n">
-        <v>1294.066450926269</v>
+        <v>1291.449057126867</v>
       </c>
       <c r="U15" t="n">
-        <v>1065.863783463748</v>
+        <v>1063.246389664345</v>
       </c>
       <c r="V15" t="n">
-        <v>830.7116752320051</v>
+        <v>1063.246389664345</v>
       </c>
       <c r="W15" t="n">
-        <v>576.4743185038035</v>
+        <v>809.0090329361433</v>
       </c>
       <c r="X15" t="n">
-        <v>368.6228182982707</v>
+        <v>809.0090329361433</v>
       </c>
       <c r="Y15" t="n">
-        <v>368.6228182982707</v>
+        <v>809.0090329361433</v>
       </c>
     </row>
     <row r="16">
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>32.45932575975218</v>
+        <v>72.05002336285372</v>
       </c>
       <c r="C16" t="n">
-        <v>32.45932575975218</v>
+        <v>72.05002336285372</v>
       </c>
       <c r="D16" t="n">
-        <v>32.45932575975218</v>
+        <v>72.05002336285372</v>
       </c>
       <c r="E16" t="n">
-        <v>32.45932575975218</v>
+        <v>72.05002336285372</v>
       </c>
       <c r="F16" t="n">
-        <v>32.45932575975218</v>
+        <v>72.05002336285372</v>
       </c>
       <c r="G16" t="n">
-        <v>32.45932575975218</v>
+        <v>72.05002336285372</v>
       </c>
       <c r="H16" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I16" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J16" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K16" t="n">
-        <v>40.81344334191284</v>
+        <v>40.81344334191287</v>
       </c>
       <c r="L16" t="n">
         <v>107.0302722280248</v>
@@ -5448,40 +5448,40 @@
         <v>187.235757098444</v>
       </c>
       <c r="N16" t="n">
-        <v>270.9687512285709</v>
+        <v>270.968751228571</v>
       </c>
       <c r="O16" t="n">
         <v>332.2934283710737</v>
       </c>
       <c r="P16" t="n">
-        <v>361.2466016029501</v>
+        <v>361.2466016029502</v>
       </c>
       <c r="Q16" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029502</v>
       </c>
       <c r="R16" t="n">
-        <v>129.490276430019</v>
+        <v>361.2466016029502</v>
       </c>
       <c r="S16" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029502</v>
       </c>
       <c r="T16" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029502</v>
       </c>
       <c r="U16" t="n">
-        <v>32.45932575975218</v>
+        <v>72.05002336285372</v>
       </c>
       <c r="V16" t="n">
-        <v>32.45932575975218</v>
+        <v>72.05002336285372</v>
       </c>
       <c r="W16" t="n">
-        <v>32.45932575975218</v>
+        <v>72.05002336285372</v>
       </c>
       <c r="X16" t="n">
-        <v>32.45932575975218</v>
+        <v>72.05002336285372</v>
       </c>
       <c r="Y16" t="n">
-        <v>32.45932575975218</v>
+        <v>72.05002336285372</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1622.966287987609</v>
+        <v>390.7250243665027</v>
       </c>
       <c r="C17" t="n">
-        <v>1622.966287987609</v>
+        <v>390.7250243665027</v>
       </c>
       <c r="D17" t="n">
-        <v>1378.603698709343</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E17" t="n">
-        <v>1378.603698709343</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F17" t="n">
-        <v>968.7637269953004</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G17" t="n">
-        <v>558.9237552812577</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H17" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I17" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J17" t="n">
         <v>70.13987180521508</v>
       </c>
       <c r="K17" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L17" t="n">
         <v>519.4894913528326</v>
       </c>
       <c r="M17" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941458</v>
       </c>
       <c r="N17" t="n">
         <v>1148.836227140252</v>
       </c>
       <c r="O17" t="n">
-        <v>1396.31758174832</v>
+        <v>1396.317581748321</v>
       </c>
       <c r="P17" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q17" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R17" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="S17" t="n">
-        <v>1622.966287987609</v>
+        <v>1311.402045381202</v>
       </c>
       <c r="T17" t="n">
-        <v>1622.966287987609</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="U17" t="n">
-        <v>1622.966287987609</v>
+        <v>834.8212426942234</v>
       </c>
       <c r="V17" t="n">
-        <v>1622.966287987609</v>
+        <v>503.7583553506528</v>
       </c>
       <c r="W17" t="n">
-        <v>1622.966287987609</v>
+        <v>390.7250243665027</v>
       </c>
       <c r="X17" t="n">
-        <v>1622.966287987609</v>
+        <v>390.7250243665027</v>
       </c>
       <c r="Y17" t="n">
-        <v>1622.966287987609</v>
+        <v>390.7250243665027</v>
       </c>
     </row>
     <row r="18">
@@ -5570,16 +5570,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>455.5713515295337</v>
+        <v>530.0204203177766</v>
       </c>
       <c r="C18" t="n">
-        <v>455.5713515295337</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="D18" t="n">
-        <v>455.5713515295337</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="E18" t="n">
-        <v>455.5713515295337</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="F18" t="n">
         <v>360.5006335659854</v>
@@ -5591,55 +5591,55 @@
         <v>111.7947023326189</v>
       </c>
       <c r="I18" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J18" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K18" t="n">
-        <v>32.45932575975218</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L18" t="n">
-        <v>330.1910807414154</v>
+        <v>505.9483651585071</v>
       </c>
       <c r="M18" t="n">
-        <v>729.6092173456784</v>
+        <v>905.3665017627701</v>
       </c>
       <c r="N18" t="n">
-        <v>1131.293373622612</v>
+        <v>1299.952780813052</v>
       </c>
       <c r="O18" t="n">
-        <v>1454.30688079717</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="P18" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="Q18" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R18" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S18" t="n">
-        <v>1374.066492846507</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T18" t="n">
-        <v>1173.163483952</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="U18" t="n">
-        <v>944.9608164894781</v>
+        <v>1227.261385483254</v>
       </c>
       <c r="V18" t="n">
-        <v>709.8087082577354</v>
+        <v>992.109277251511</v>
       </c>
       <c r="W18" t="n">
-        <v>455.5713515295337</v>
+        <v>737.8719205233094</v>
       </c>
       <c r="X18" t="n">
-        <v>455.5713515295337</v>
+        <v>530.0204203177766</v>
       </c>
       <c r="Y18" t="n">
-        <v>455.5713515295337</v>
+        <v>530.0204203177766</v>
       </c>
     </row>
     <row r="19">
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C19" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D19" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E19" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F19" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G19" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H19" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I19" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J19" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K19" t="n">
-        <v>40.81344334191284</v>
+        <v>40.81344334191286</v>
       </c>
       <c r="L19" t="n">
         <v>107.0302722280248</v>
@@ -5706,19 +5706,19 @@
         <v>361.2466016029501</v>
       </c>
       <c r="U19" t="n">
-        <v>72.05002336285366</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V19" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W19" t="n">
-        <v>32.45932575975218</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="X19" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y19" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>119.9927024164821</v>
+        <v>451.6733443394129</v>
       </c>
       <c r="C20" t="n">
-        <v>32.45932575975219</v>
+        <v>451.6733443394129</v>
       </c>
       <c r="D20" t="n">
-        <v>32.45932575975219</v>
+        <v>93.40764573266244</v>
       </c>
       <c r="E20" t="n">
-        <v>32.45932575975219</v>
+        <v>93.40764573266244</v>
       </c>
       <c r="F20" t="n">
         <v>32.45932575975219</v>
@@ -5755,10 +5755,10 @@
         <v>70.13987180521508</v>
       </c>
       <c r="K20" t="n">
-        <v>247.3580469011322</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L20" t="n">
-        <v>519.4894913528328</v>
+        <v>519.4894913528327</v>
       </c>
       <c r="M20" t="n">
         <v>838.8947028941458</v>
@@ -5767,37 +5767,37 @@
         <v>1148.836227140252</v>
       </c>
       <c r="O20" t="n">
-        <v>1396.317581748321</v>
+        <v>1396.31758174832</v>
       </c>
       <c r="P20" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q20" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R20" t="n">
-        <v>1622.96628798761</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="S20" t="n">
-        <v>1622.96628798761</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="T20" t="n">
-        <v>1622.96628798761</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="U20" t="n">
-        <v>1622.96628798761</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="V20" t="n">
-        <v>1622.96628798761</v>
+        <v>1177.907757870607</v>
       </c>
       <c r="W20" t="n">
-        <v>1270.197632717495</v>
+        <v>825.1391026004928</v>
       </c>
       <c r="X20" t="n">
-        <v>896.7318744564157</v>
+        <v>451.6733443394129</v>
       </c>
       <c r="Y20" t="n">
-        <v>506.5925424806039</v>
+        <v>451.6733443394129</v>
       </c>
     </row>
     <row r="21">
@@ -5807,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>476.6437119791524</v>
+        <v>737.8719205233092</v>
       </c>
       <c r="C21" t="n">
-        <v>476.6437119791524</v>
+        <v>586.9372699716891</v>
       </c>
       <c r="D21" t="n">
-        <v>476.6437119791524</v>
+        <v>586.9372699716891</v>
       </c>
       <c r="E21" t="n">
-        <v>317.4062569736969</v>
+        <v>427.6998149662337</v>
       </c>
       <c r="F21" t="n">
-        <v>170.8716990005819</v>
+        <v>281.1652569931187</v>
       </c>
       <c r="G21" t="n">
-        <v>32.45932575975219</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="H21" t="n">
         <v>32.45932575975219</v>
@@ -5834,49 +5834,49 @@
         <v>32.45932575975219</v>
       </c>
       <c r="K21" t="n">
-        <v>208.2166101768439</v>
+        <v>201.1187329501918</v>
       </c>
       <c r="L21" t="n">
-        <v>505.948365158507</v>
+        <v>498.850487931855</v>
       </c>
       <c r="M21" t="n">
-        <v>905.36650176277</v>
+        <v>898.268624536118</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.050658039703</v>
+        <v>1299.952780813051</v>
       </c>
       <c r="O21" t="n">
-        <v>1513.730526286847</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="P21" t="n">
-        <v>1513.730526286847</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q21" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R21" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S21" t="n">
-        <v>1374.066492846507</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T21" t="n">
-        <v>1362.451181421686</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="U21" t="n">
-        <v>1134.248513959165</v>
+        <v>1227.261385483253</v>
       </c>
       <c r="V21" t="n">
-        <v>899.0964057274221</v>
+        <v>992.1092772515108</v>
       </c>
       <c r="W21" t="n">
-        <v>644.8590489992205</v>
+        <v>737.8719205233092</v>
       </c>
       <c r="X21" t="n">
-        <v>644.8590489992205</v>
+        <v>737.8719205233092</v>
       </c>
       <c r="Y21" t="n">
-        <v>644.8590489992205</v>
+        <v>737.8719205233092</v>
       </c>
     </row>
     <row r="22">
@@ -5913,7 +5913,7 @@
         <v>32.45932575975219</v>
       </c>
       <c r="K22" t="n">
-        <v>40.81344334191285</v>
+        <v>40.81344334191286</v>
       </c>
       <c r="L22" t="n">
         <v>107.0302722280248</v>
@@ -5937,22 +5937,22 @@
         <v>361.2466016029501</v>
       </c>
       <c r="S22" t="n">
-        <v>361.2466016029501</v>
+        <v>253.2519049032823</v>
       </c>
       <c r="T22" t="n">
-        <v>132.1392625228377</v>
+        <v>253.2519049032823</v>
       </c>
       <c r="U22" t="n">
-        <v>132.1392625228377</v>
+        <v>253.2519049032823</v>
       </c>
       <c r="V22" t="n">
-        <v>132.1392625228377</v>
+        <v>253.2519049032823</v>
       </c>
       <c r="W22" t="n">
-        <v>32.45932575975219</v>
+        <v>253.2519049032823</v>
       </c>
       <c r="X22" t="n">
-        <v>32.45932575975219</v>
+        <v>253.2519049032823</v>
       </c>
       <c r="Y22" t="n">
         <v>32.45932575975219</v>
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1237.927521786082</v>
+        <v>1010.083036392566</v>
       </c>
       <c r="C23" t="n">
-        <v>1237.927521786082</v>
+        <v>1010.083036392566</v>
       </c>
       <c r="D23" t="n">
-        <v>1237.927521786082</v>
+        <v>651.8173377858152</v>
       </c>
       <c r="E23" t="n">
-        <v>852.1392691878377</v>
+        <v>651.8173377858152</v>
       </c>
       <c r="F23" t="n">
-        <v>442.299297473795</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="G23" t="n">
-        <v>32.45932575975219</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="H23" t="n">
         <v>32.45932575975219</v>
@@ -5992,7 +5992,7 @@
         <v>70.13987180521508</v>
       </c>
       <c r="K23" t="n">
-        <v>247.3580469011319</v>
+        <v>247.358046901132</v>
       </c>
       <c r="L23" t="n">
         <v>519.4894913528327</v>
@@ -6004,37 +6004,37 @@
         <v>1148.836227140252</v>
       </c>
       <c r="O23" t="n">
-        <v>1396.31758174832</v>
+        <v>1396.317581748321</v>
       </c>
       <c r="P23" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q23" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R23" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S23" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="T23" t="n">
-        <v>1622.966287987609</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="U23" t="n">
-        <v>1622.966287987609</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="V23" t="n">
-        <v>1622.966287987609</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="W23" t="n">
-        <v>1270.197632717495</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="X23" t="n">
-        <v>1237.927521786082</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="Y23" t="n">
-        <v>1237.927521786082</v>
+        <v>1010.083036392566</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>549.7496870371103</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="C24" t="n">
-        <v>375.2966577559833</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="D24" t="n">
-        <v>226.3622480947321</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="E24" t="n">
-        <v>67.12479308927658</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="F24" t="n">
-        <v>32.45932575975219</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="G24" t="n">
-        <v>32.45932575975219</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="H24" t="n">
         <v>32.45932575975219</v>
@@ -6071,49 +6071,49 @@
         <v>61.20822116384404</v>
       </c>
       <c r="K24" t="n">
-        <v>61.20822116384404</v>
+        <v>236.9655055809358</v>
       </c>
       <c r="L24" t="n">
-        <v>358.9399761455072</v>
+        <v>534.697260562599</v>
       </c>
       <c r="M24" t="n">
-        <v>758.3581127497703</v>
+        <v>898.2686245361181</v>
       </c>
       <c r="N24" t="n">
-        <v>1160.042269026704</v>
+        <v>1299.952780813052</v>
       </c>
       <c r="O24" t="n">
-        <v>1483.055776201262</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="P24" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="Q24" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R24" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S24" t="n">
-        <v>1622.966287987609</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T24" t="n">
-        <v>1622.966287987609</v>
+        <v>1275.956815145242</v>
       </c>
       <c r="U24" t="n">
-        <v>1622.966287987609</v>
+        <v>1047.75414768272</v>
       </c>
       <c r="V24" t="n">
-        <v>1387.814179755867</v>
+        <v>812.6020394509774</v>
       </c>
       <c r="W24" t="n">
-        <v>1133.576823027665</v>
+        <v>558.3646827227757</v>
       </c>
       <c r="X24" t="n">
-        <v>925.7253228221323</v>
+        <v>350.5131825172429</v>
       </c>
       <c r="Y24" t="n">
-        <v>717.9650240571784</v>
+        <v>142.7528837522889</v>
       </c>
     </row>
     <row r="25">
@@ -6168,22 +6168,22 @@
         <v>361.2466016029501</v>
       </c>
       <c r="Q25" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R25" t="n">
-        <v>129.490276430019</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S25" t="n">
-        <v>129.490276430019</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T25" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U25" t="n">
-        <v>32.45932575975219</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="V25" t="n">
-        <v>32.45932575975219</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="W25" t="n">
         <v>32.45932575975219</v>
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>32.45932575975219</v>
+        <v>702.0582856978474</v>
       </c>
       <c r="C26" t="n">
-        <v>32.45932575975219</v>
+        <v>702.0582856978474</v>
       </c>
       <c r="D26" t="n">
-        <v>32.45932575975219</v>
+        <v>702.0582856978474</v>
       </c>
       <c r="E26" t="n">
-        <v>32.45932575975219</v>
+        <v>442.299297473795</v>
       </c>
       <c r="F26" t="n">
-        <v>32.45932575975219</v>
+        <v>442.299297473795</v>
       </c>
       <c r="G26" t="n">
         <v>32.45932575975219</v>
@@ -6226,13 +6226,13 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J26" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521519</v>
       </c>
       <c r="K26" t="n">
-        <v>247.3580469011319</v>
+        <v>247.3580469011321</v>
       </c>
       <c r="L26" t="n">
-        <v>519.4894913528327</v>
+        <v>519.4894913528328</v>
       </c>
       <c r="M26" t="n">
         <v>838.8947028941458</v>
@@ -6250,28 +6250,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R26" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="S26" t="n">
-        <v>1622.966287987609</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T26" t="n">
-        <v>1622.966287987609</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="U26" t="n">
-        <v>1476.356466698639</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="V26" t="n">
-        <v>1145.293579355068</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="W26" t="n">
-        <v>792.5249240849539</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="X26" t="n">
-        <v>419.059165823874</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="Y26" t="n">
-        <v>419.059165823874</v>
+        <v>1088.658125761969</v>
       </c>
     </row>
     <row r="27">
@@ -6281,16 +6281,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>322.2601215528225</v>
+        <v>39.24645058081364</v>
       </c>
       <c r="C27" t="n">
-        <v>322.2601215528225</v>
+        <v>39.24645058081364</v>
       </c>
       <c r="D27" t="n">
-        <v>173.3257118915712</v>
+        <v>39.24645058081364</v>
       </c>
       <c r="E27" t="n">
-        <v>173.3257118915712</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F27" t="n">
         <v>32.45932575975219</v>
@@ -6305,52 +6305,52 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J27" t="n">
-        <v>61.20822116384404</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K27" t="n">
-        <v>236.9655055809358</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L27" t="n">
-        <v>534.697260562599</v>
+        <v>256.6067387278471</v>
       </c>
       <c r="M27" t="n">
-        <v>934.1153971668621</v>
+        <v>656.0248753321101</v>
       </c>
       <c r="N27" t="n">
-        <v>1271.486777082839</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O27" t="n">
-        <v>1271.486777082839</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P27" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q27" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R27" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S27" t="n">
-        <v>1455.464052945775</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="T27" t="n">
-        <v>1455.464052945775</v>
+        <v>1340.665718993834</v>
       </c>
       <c r="U27" t="n">
-        <v>1227.261385483253</v>
+        <v>1112.463051531313</v>
       </c>
       <c r="V27" t="n">
-        <v>992.1092772515108</v>
+        <v>877.31094329957</v>
       </c>
       <c r="W27" t="n">
-        <v>737.8719205233092</v>
+        <v>623.0735865713684</v>
       </c>
       <c r="X27" t="n">
-        <v>530.0204203177764</v>
+        <v>415.2220863658356</v>
       </c>
       <c r="Y27" t="n">
-        <v>322.2601215528225</v>
+        <v>207.4617876008817</v>
       </c>
     </row>
     <row r="28">
@@ -6405,22 +6405,22 @@
         <v>361.2466016029501</v>
       </c>
       <c r="Q28" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R28" t="n">
-        <v>129.490276430019</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S28" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T28" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U28" t="n">
-        <v>32.45932575975219</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="V28" t="n">
-        <v>32.45932575975219</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="W28" t="n">
         <v>32.45932575975219</v>
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>828.0875500720392</v>
+        <v>787.2100952984081</v>
       </c>
       <c r="C29" t="n">
-        <v>828.0875500720392</v>
+        <v>418.2475783579964</v>
       </c>
       <c r="D29" t="n">
-        <v>828.0875500720392</v>
+        <v>418.2475783579964</v>
       </c>
       <c r="E29" t="n">
-        <v>442.299297473795</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F29" t="n">
         <v>32.45932575975219</v>
@@ -6496,19 +6496,19 @@
         <v>1622.966287987609</v>
       </c>
       <c r="U29" t="n">
-        <v>1604.826722111973</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V29" t="n">
-        <v>1604.826722111973</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W29" t="n">
-        <v>1604.826722111973</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X29" t="n">
-        <v>1604.826722111973</v>
+        <v>1249.50052972653</v>
       </c>
       <c r="Y29" t="n">
-        <v>1214.687390136161</v>
+        <v>1173.80993536253</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>883.9639259083287</v>
+        <v>502.3813226752455</v>
       </c>
       <c r="C30" t="n">
-        <v>709.5108966272018</v>
+        <v>327.9282933941185</v>
       </c>
       <c r="D30" t="n">
-        <v>560.5764869659505</v>
+        <v>178.9938837328672</v>
       </c>
       <c r="E30" t="n">
-        <v>507.0351915391004</v>
+        <v>178.9938837328672</v>
       </c>
       <c r="F30" t="n">
-        <v>360.5006335659854</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G30" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H30" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I30" t="n">
         <v>32.45932575975219</v>
@@ -6572,22 +6572,22 @@
         <v>1541.568727888341</v>
       </c>
       <c r="T30" t="n">
-        <v>1541.568727888341</v>
+        <v>1367.837624860791</v>
       </c>
       <c r="U30" t="n">
-        <v>1541.568727888341</v>
+        <v>1367.837624860791</v>
       </c>
       <c r="V30" t="n">
-        <v>1306.416619656598</v>
+        <v>1132.685516629048</v>
       </c>
       <c r="W30" t="n">
-        <v>1052.179262928397</v>
+        <v>878.4481599008463</v>
       </c>
       <c r="X30" t="n">
-        <v>1052.179262928397</v>
+        <v>670.5966596953135</v>
       </c>
       <c r="Y30" t="n">
-        <v>1052.179262928397</v>
+        <v>670.5966596953135</v>
       </c>
     </row>
     <row r="31">
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>32.45932575975219</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="C31" t="n">
-        <v>32.45932575975219</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="D31" t="n">
-        <v>32.45932575975219</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="E31" t="n">
-        <v>32.45932575975219</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="F31" t="n">
-        <v>32.45932575975219</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="G31" t="n">
         <v>32.45932575975219</v>
@@ -6642,31 +6642,31 @@
         <v>361.2466016029501</v>
       </c>
       <c r="Q31" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R31" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S31" t="n">
-        <v>261.5666648398646</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="T31" t="n">
-        <v>32.45932575975219</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="U31" t="n">
-        <v>32.45932575975219</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="V31" t="n">
-        <v>32.45932575975219</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="W31" t="n">
-        <v>32.45932575975219</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="X31" t="n">
-        <v>32.45932575975219</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="Y31" t="n">
-        <v>32.45932575975219</v>
+        <v>139.6199360758255</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>716.3908257546925</v>
+        <v>852.139269187838</v>
       </c>
       <c r="C32" t="n">
-        <v>716.3908257546925</v>
+        <v>852.139269187838</v>
       </c>
       <c r="D32" t="n">
-        <v>716.3908257546925</v>
+        <v>852.139269187838</v>
       </c>
       <c r="E32" t="n">
-        <v>716.3908257546925</v>
+        <v>852.139269187838</v>
       </c>
       <c r="F32" t="n">
-        <v>369.2677254726013</v>
+        <v>442.299297473795</v>
       </c>
       <c r="G32" t="n">
-        <v>369.2677254726013</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H32" t="n">
         <v>32.45932575975219</v>
@@ -6703,10 +6703,10 @@
         <v>70.13987180521508</v>
       </c>
       <c r="K32" t="n">
-        <v>247.3580469011317</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L32" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528327</v>
       </c>
       <c r="M32" t="n">
         <v>838.8947028941458</v>
@@ -6724,28 +6724,28 @@
         <v>1622.96628798761</v>
       </c>
       <c r="R32" t="n">
-        <v>1622.96628798761</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="S32" t="n">
-        <v>1622.96628798761</v>
+        <v>1311.402045381202</v>
       </c>
       <c r="T32" t="n">
-        <v>1400.222368368377</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="U32" t="n">
-        <v>1400.222368368377</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="V32" t="n">
-        <v>1069.159481024807</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="W32" t="n">
-        <v>716.3908257546925</v>
+        <v>852.139269187838</v>
       </c>
       <c r="X32" t="n">
-        <v>716.3908257546925</v>
+        <v>852.139269187838</v>
       </c>
       <c r="Y32" t="n">
-        <v>716.3908257546925</v>
+        <v>852.139269187838</v>
       </c>
     </row>
     <row r="33">
@@ -6755,49 +6755,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>530.0204203177766</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="C33" t="n">
-        <v>530.0204203177766</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="D33" t="n">
-        <v>381.0860106565253</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="E33" t="n">
-        <v>221.8485556510698</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="F33" t="n">
-        <v>75.3139976779548</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="G33" t="n">
-        <v>32.45932575975219</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="H33" t="n">
-        <v>32.45932575975219</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I33" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J33" t="n">
-        <v>61.20822116384404</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K33" t="n">
-        <v>236.9655055809358</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="L33" t="n">
-        <v>534.697260562599</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M33" t="n">
-        <v>934.1153971668621</v>
+        <v>729.6092173456784</v>
       </c>
       <c r="N33" t="n">
-        <v>948.4732699082811</v>
+        <v>1131.293373622612</v>
       </c>
       <c r="O33" t="n">
-        <v>1271.486777082839</v>
+        <v>1454.30688079717</v>
       </c>
       <c r="P33" t="n">
-        <v>1513.730526286847</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="Q33" t="n">
         <v>1622.96628798761</v>
@@ -6809,22 +6809,22 @@
         <v>1455.464052945775</v>
       </c>
       <c r="T33" t="n">
-        <v>1455.464052945775</v>
+        <v>1254.561044051269</v>
       </c>
       <c r="U33" t="n">
-        <v>1227.261385483254</v>
+        <v>1026.358376588747</v>
       </c>
       <c r="V33" t="n">
-        <v>992.109277251511</v>
+        <v>791.2062683570043</v>
       </c>
       <c r="W33" t="n">
-        <v>737.8719205233094</v>
+        <v>536.9689116288027</v>
       </c>
       <c r="X33" t="n">
-        <v>530.0204203177766</v>
+        <v>329.1174114232699</v>
       </c>
       <c r="Y33" t="n">
-        <v>530.0204203177766</v>
+        <v>121.357112658316</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1402.17370884408</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C34" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D34" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E34" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F34" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G34" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H34" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I34" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J34" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K34" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191286</v>
       </c>
       <c r="L34" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M34" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N34" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O34" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P34" t="n">
-        <v>1622.96628798761</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q34" t="n">
-        <v>1622.96628798761</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R34" t="n">
-        <v>1622.96628798761</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S34" t="n">
-        <v>1622.96628798761</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T34" t="n">
-        <v>1622.96628798761</v>
+        <v>287.1438139656391</v>
       </c>
       <c r="U34" t="n">
-        <v>1622.96628798761</v>
+        <v>287.1438139656391</v>
       </c>
       <c r="V34" t="n">
-        <v>1622.96628798761</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="W34" t="n">
-        <v>1622.96628798761</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="X34" t="n">
-        <v>1622.96628798761</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y34" t="n">
-        <v>1402.17370884408</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>503.7583553506526</v>
+        <v>846.2271159476761</v>
       </c>
       <c r="C35" t="n">
-        <v>503.7583553506526</v>
+        <v>846.2271159476761</v>
       </c>
       <c r="D35" t="n">
-        <v>503.7583553506526</v>
+        <v>846.2271159476761</v>
       </c>
       <c r="E35" t="n">
-        <v>503.7583553506526</v>
+        <v>846.2271159476761</v>
       </c>
       <c r="F35" t="n">
-        <v>503.7583553506526</v>
+        <v>436.3871442336333</v>
       </c>
       <c r="G35" t="n">
-        <v>93.91838363660975</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H35" t="n">
-        <v>93.91838363660975</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I35" t="n">
         <v>32.45932575975219</v>
@@ -6940,10 +6940,10 @@
         <v>70.13987180521508</v>
       </c>
       <c r="K35" t="n">
-        <v>247.3580469011319</v>
+        <v>247.3580469011317</v>
       </c>
       <c r="L35" t="n">
-        <v>519.4894913528327</v>
+        <v>519.4894913528325</v>
       </c>
       <c r="M35" t="n">
         <v>838.8947028941458</v>
@@ -6958,31 +6958,31 @@
         <v>1569.862809315274</v>
       </c>
       <c r="Q35" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R35" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S35" t="n">
-        <v>1311.402045381201</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="T35" t="n">
-        <v>1088.658125761969</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="U35" t="n">
-        <v>834.8212426942232</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="V35" t="n">
-        <v>503.7583553506526</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="W35" t="n">
-        <v>503.7583553506526</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="X35" t="n">
-        <v>503.7583553506526</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="Y35" t="n">
-        <v>503.7583553506526</v>
+        <v>1232.826956011798</v>
       </c>
     </row>
     <row r="36">
@@ -6992,13 +6992,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>329.1174114232697</v>
+        <v>366.1498100463347</v>
       </c>
       <c r="C36" t="n">
-        <v>154.6643821421427</v>
+        <v>191.6967807652077</v>
       </c>
       <c r="D36" t="n">
-        <v>32.45932575975219</v>
+        <v>191.6967807652077</v>
       </c>
       <c r="E36" t="n">
         <v>32.45932575975219</v>
@@ -7019,49 +7019,49 @@
         <v>32.45932575975219</v>
       </c>
       <c r="K36" t="n">
-        <v>208.2166101768439</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="L36" t="n">
-        <v>505.9483651585071</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M36" t="n">
-        <v>905.3665017627701</v>
+        <v>729.6092173456784</v>
       </c>
       <c r="N36" t="n">
-        <v>1057.709031609043</v>
+        <v>1131.293373622612</v>
       </c>
       <c r="O36" t="n">
-        <v>1380.722538783602</v>
+        <v>1454.30688079717</v>
       </c>
       <c r="P36" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="Q36" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R36" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S36" t="n">
-        <v>1455.464052945775</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="T36" t="n">
-        <v>1254.561044051268</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="U36" t="n">
-        <v>1026.358376588747</v>
+        <v>1439.366410996834</v>
       </c>
       <c r="V36" t="n">
-        <v>791.2062683570041</v>
+        <v>1204.214302765091</v>
       </c>
       <c r="W36" t="n">
-        <v>536.9689116288025</v>
+        <v>949.9769460368893</v>
       </c>
       <c r="X36" t="n">
-        <v>329.1174114232697</v>
+        <v>742.1254458313565</v>
       </c>
       <c r="Y36" t="n">
-        <v>329.1174114232697</v>
+        <v>534.3651470664026</v>
       </c>
     </row>
     <row r="37">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C37" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D37" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E37" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F37" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G37" t="n">
-        <v>191.8257232724346</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H37" t="n">
-        <v>181.4512025860964</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I37" t="n">
         <v>32.45932575975219</v>
@@ -7119,28 +7119,28 @@
         <v>361.2466016029501</v>
       </c>
       <c r="R37" t="n">
-        <v>361.2466016029501</v>
+        <v>194.1667418687506</v>
       </c>
       <c r="S37" t="n">
-        <v>361.2466016029501</v>
+        <v>194.1667418687506</v>
       </c>
       <c r="T37" t="n">
-        <v>361.2466016029501</v>
+        <v>194.1667418687506</v>
       </c>
       <c r="U37" t="n">
-        <v>361.2466016029501</v>
+        <v>194.1667418687506</v>
       </c>
       <c r="V37" t="n">
-        <v>361.2466016029501</v>
+        <v>194.1667418687506</v>
       </c>
       <c r="W37" t="n">
-        <v>361.2466016029501</v>
+        <v>194.1667418687506</v>
       </c>
       <c r="X37" t="n">
-        <v>361.2466016029501</v>
+        <v>194.1667418687506</v>
       </c>
       <c r="Y37" t="n">
-        <v>361.2466016029501</v>
+        <v>194.1667418687506</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>779.1076971866441</v>
+        <v>442.299297473795</v>
       </c>
       <c r="C38" t="n">
-        <v>779.1076971866441</v>
+        <v>442.299297473795</v>
       </c>
       <c r="D38" t="n">
-        <v>779.1076971866441</v>
+        <v>442.299297473795</v>
       </c>
       <c r="E38" t="n">
-        <v>779.1076971866441</v>
+        <v>442.299297473795</v>
       </c>
       <c r="F38" t="n">
-        <v>779.1076971866441</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G38" t="n">
-        <v>369.2677254726013</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H38" t="n">
         <v>32.45932575975219</v>
@@ -7183,7 +7183,7 @@
         <v>519.4894913528327</v>
       </c>
       <c r="M38" t="n">
-        <v>838.8947028941458</v>
+        <v>838.8947028941459</v>
       </c>
       <c r="N38" t="n">
         <v>1148.836227140252</v>
@@ -7210,16 +7210,16 @@
         <v>1622.96628798761</v>
       </c>
       <c r="V38" t="n">
-        <v>1291.903400644039</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="W38" t="n">
-        <v>939.1347453739247</v>
+        <v>1592.504227774808</v>
       </c>
       <c r="X38" t="n">
-        <v>779.1076971866441</v>
+        <v>1219.038469513729</v>
       </c>
       <c r="Y38" t="n">
-        <v>779.1076971866441</v>
+        <v>828.8991375379169</v>
       </c>
     </row>
     <row r="39">
@@ -7229,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>784.9017952688532</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C39" t="n">
-        <v>610.4487659877262</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D39" t="n">
-        <v>461.514356326475</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E39" t="n">
-        <v>302.2769013210195</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F39" t="n">
-        <v>155.7423433479044</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G39" t="n">
         <v>32.45932575975219</v>
@@ -7253,22 +7253,22 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J39" t="n">
-        <v>61.20822116384404</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K39" t="n">
-        <v>61.20822116384404</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="L39" t="n">
-        <v>358.9399761455072</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M39" t="n">
-        <v>758.3581127497703</v>
+        <v>729.6092173456784</v>
       </c>
       <c r="N39" t="n">
-        <v>1160.042269026704</v>
+        <v>1057.709031609044</v>
       </c>
       <c r="O39" t="n">
-        <v>1483.055776201262</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P39" t="n">
         <v>1622.96628798761</v>
@@ -7277,28 +7277,28 @@
         <v>1622.96628798761</v>
       </c>
       <c r="R39" t="n">
-        <v>1622.96628798761</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S39" t="n">
-        <v>1622.96628798761</v>
+        <v>1534.78160306728</v>
       </c>
       <c r="T39" t="n">
-        <v>1622.96628798761</v>
+        <v>1333.878594172773</v>
       </c>
       <c r="U39" t="n">
-        <v>1622.96628798761</v>
+        <v>1105.675926710251</v>
       </c>
       <c r="V39" t="n">
-        <v>1622.96628798761</v>
+        <v>870.5238184785085</v>
       </c>
       <c r="W39" t="n">
-        <v>1368.728931259408</v>
+        <v>616.2864617503069</v>
       </c>
       <c r="X39" t="n">
-        <v>1160.877431053875</v>
+        <v>408.4349615447741</v>
       </c>
       <c r="Y39" t="n">
-        <v>953.1171322889213</v>
+        <v>200.6746627798202</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>296.5701361642185</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C40" t="n">
-        <v>296.5701361642185</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D40" t="n">
-        <v>296.5701361642185</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E40" t="n">
-        <v>296.5701361642185</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F40" t="n">
-        <v>296.5701361642185</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G40" t="n">
-        <v>296.5701361642185</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H40" t="n">
-        <v>256.8779464865154</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I40" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J40" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="K40" t="n">
-        <v>40.81344334191286</v>
+        <v>40.81344334191287</v>
       </c>
       <c r="L40" t="n">
-        <v>107.0302722280248</v>
+        <v>107.0302722280249</v>
       </c>
       <c r="M40" t="n">
-        <v>187.235757098444</v>
+        <v>187.2357570984441</v>
       </c>
       <c r="N40" t="n">
-        <v>270.9687512285709</v>
+        <v>270.968751228571</v>
       </c>
       <c r="O40" t="n">
-        <v>332.2934283710737</v>
+        <v>332.2934283710738</v>
       </c>
       <c r="P40" t="n">
-        <v>361.2466016029501</v>
+        <v>361.2466016029502</v>
       </c>
       <c r="Q40" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029502</v>
       </c>
       <c r="R40" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029502</v>
       </c>
       <c r="S40" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029502</v>
       </c>
       <c r="T40" t="n">
-        <v>296.5701361642185</v>
+        <v>321.6559039998486</v>
       </c>
       <c r="U40" t="n">
-        <v>296.5701361642185</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="V40" t="n">
-        <v>296.5701361642185</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="W40" t="n">
-        <v>296.5701361642185</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="X40" t="n">
-        <v>296.5701361642185</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y40" t="n">
-        <v>296.5701361642185</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>32.45932575975219</v>
+        <v>509.4875535550122</v>
       </c>
       <c r="C41" t="n">
-        <v>32.45932575975219</v>
+        <v>509.4875535550122</v>
       </c>
       <c r="D41" t="n">
-        <v>32.45932575975219</v>
+        <v>418.2475783579964</v>
       </c>
       <c r="E41" t="n">
         <v>32.45932575975219</v>
@@ -7411,16 +7411,16 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J41" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521499</v>
       </c>
       <c r="K41" t="n">
-        <v>247.358046901132</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L41" t="n">
-        <v>519.4894913528327</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M41" t="n">
-        <v>838.8947028941459</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N41" t="n">
         <v>1148.836227140252</v>
@@ -7435,28 +7435,28 @@
         <v>1622.96628798761</v>
       </c>
       <c r="R41" t="n">
-        <v>1622.96628798761</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="S41" t="n">
-        <v>1622.96628798761</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="T41" t="n">
-        <v>1622.96628798761</v>
+        <v>1286.226725594946</v>
       </c>
       <c r="U41" t="n">
-        <v>1479.895958610329</v>
+        <v>1286.226725594946</v>
       </c>
       <c r="V41" t="n">
-        <v>1148.833071266758</v>
+        <v>1286.226725594946</v>
       </c>
       <c r="W41" t="n">
-        <v>796.0644159966438</v>
+        <v>1286.226725594946</v>
       </c>
       <c r="X41" t="n">
-        <v>422.5986577355639</v>
+        <v>1286.226725594946</v>
       </c>
       <c r="Y41" t="n">
-        <v>32.45932575975219</v>
+        <v>896.087393619134</v>
       </c>
     </row>
     <row r="42">
@@ -7466,46 +7466,46 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>989.6600854869342</v>
+        <v>207.4617876008819</v>
       </c>
       <c r="C42" t="n">
-        <v>815.2070562058072</v>
+        <v>207.4617876008819</v>
       </c>
       <c r="D42" t="n">
-        <v>666.272646544556</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="E42" t="n">
-        <v>507.0351915391004</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="F42" t="n">
-        <v>360.5006335659854</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="G42" t="n">
-        <v>222.0882603251556</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="H42" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I42" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J42" t="n">
-        <v>61.20822116384406</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K42" t="n">
-        <v>61.20822116384406</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="L42" t="n">
-        <v>358.9399761455073</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M42" t="n">
-        <v>758.3581127497703</v>
+        <v>656.0248753321102</v>
       </c>
       <c r="N42" t="n">
-        <v>1160.042269026704</v>
+        <v>1057.709031609044</v>
       </c>
       <c r="O42" t="n">
-        <v>1483.055776201262</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P42" t="n">
         <v>1622.96628798761</v>
@@ -7523,19 +7523,19 @@
         <v>1340.665718993835</v>
       </c>
       <c r="U42" t="n">
-        <v>1340.665718993835</v>
+        <v>1112.463051531313</v>
       </c>
       <c r="V42" t="n">
-        <v>1340.665718993835</v>
+        <v>877.3109432995702</v>
       </c>
       <c r="W42" t="n">
-        <v>1340.665718993835</v>
+        <v>623.0735865713687</v>
       </c>
       <c r="X42" t="n">
-        <v>1340.665718993835</v>
+        <v>415.2220863658358</v>
       </c>
       <c r="Y42" t="n">
-        <v>1132.905420228881</v>
+        <v>207.4617876008819</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1294.179012144411</v>
+        <v>361.2466016029502</v>
       </c>
       <c r="C43" t="n">
-        <v>1294.179012144411</v>
+        <v>192.3104186750433</v>
       </c>
       <c r="D43" t="n">
-        <v>1294.179012144411</v>
+        <v>192.3104186750433</v>
       </c>
       <c r="E43" t="n">
-        <v>1294.179012144411</v>
+        <v>192.3104186750433</v>
       </c>
       <c r="F43" t="n">
-        <v>1294.179012144411</v>
+        <v>192.3104186750433</v>
       </c>
       <c r="G43" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H43" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I43" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J43" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K43" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191287</v>
       </c>
       <c r="L43" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280249</v>
       </c>
       <c r="M43" t="n">
-        <v>1448.955443483103</v>
+        <v>187.2357570984441</v>
       </c>
       <c r="N43" t="n">
-        <v>1532.68843761323</v>
+        <v>270.968751228571</v>
       </c>
       <c r="O43" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710738</v>
       </c>
       <c r="P43" t="n">
-        <v>1622.96628798761</v>
+        <v>361.2466016029502</v>
       </c>
       <c r="Q43" t="n">
-        <v>1622.96628798761</v>
+        <v>361.2466016029502</v>
       </c>
       <c r="R43" t="n">
-        <v>1622.96628798761</v>
+        <v>361.2466016029502</v>
       </c>
       <c r="S43" t="n">
-        <v>1401.339622460485</v>
+        <v>361.2466016029502</v>
       </c>
       <c r="T43" t="n">
-        <v>1294.179012144411</v>
+        <v>361.2466016029502</v>
       </c>
       <c r="U43" t="n">
-        <v>1294.179012144411</v>
+        <v>361.2466016029502</v>
       </c>
       <c r="V43" t="n">
-        <v>1294.179012144411</v>
+        <v>361.2466016029502</v>
       </c>
       <c r="W43" t="n">
-        <v>1294.179012144411</v>
+        <v>361.2466016029502</v>
       </c>
       <c r="X43" t="n">
-        <v>1294.179012144411</v>
+        <v>361.2466016029502</v>
       </c>
       <c r="Y43" t="n">
-        <v>1294.179012144411</v>
+        <v>361.2466016029502</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1622.96628798761</v>
+        <v>318.1966669792197</v>
       </c>
       <c r="C44" t="n">
-        <v>1622.96628798761</v>
+        <v>318.1966669792197</v>
       </c>
       <c r="D44" t="n">
-        <v>1622.96628798761</v>
+        <v>318.1966669792197</v>
       </c>
       <c r="E44" t="n">
-        <v>1237.178035389365</v>
+        <v>318.1966669792197</v>
       </c>
       <c r="F44" t="n">
-        <v>827.3380636753225</v>
+        <v>318.1966669792197</v>
       </c>
       <c r="G44" t="n">
-        <v>417.4980919612796</v>
+        <v>318.1966669792197</v>
       </c>
       <c r="H44" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I44" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J44" t="n">
-        <v>70.13987180521511</v>
+        <v>70.13987180521499</v>
       </c>
       <c r="K44" t="n">
-        <v>247.358046901132</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L44" t="n">
-        <v>519.4894913528327</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M44" t="n">
         <v>838.8947028941457</v>
@@ -7672,28 +7672,28 @@
         <v>1622.96628798761</v>
       </c>
       <c r="R44" t="n">
-        <v>1622.96628798761</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="S44" t="n">
-        <v>1622.96628798761</v>
+        <v>1311.402045381202</v>
       </c>
       <c r="T44" t="n">
-        <v>1622.96628798761</v>
+        <v>1311.402045381202</v>
       </c>
       <c r="U44" t="n">
-        <v>1622.96628798761</v>
+        <v>1057.565162313456</v>
       </c>
       <c r="V44" t="n">
-        <v>1622.96628798761</v>
+        <v>1057.565162313456</v>
       </c>
       <c r="W44" t="n">
-        <v>1622.96628798761</v>
+        <v>704.7965070433415</v>
       </c>
       <c r="X44" t="n">
-        <v>1622.96628798761</v>
+        <v>704.7965070433415</v>
       </c>
       <c r="Y44" t="n">
-        <v>1622.96628798761</v>
+        <v>704.7965070433415</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>240.8625614535544</v>
+        <v>206.9123550408792</v>
       </c>
       <c r="C45" t="n">
-        <v>66.40953217242739</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D45" t="n">
-        <v>66.40953217242739</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E45" t="n">
-        <v>66.40953217242739</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F45" t="n">
-        <v>66.40953217242739</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G45" t="n">
-        <v>66.40953217242739</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H45" t="n">
         <v>32.45932575975219</v>
@@ -7727,22 +7727,22 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J45" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384406</v>
       </c>
       <c r="K45" t="n">
-        <v>32.45932575975219</v>
+        <v>236.9655055809358</v>
       </c>
       <c r="L45" t="n">
-        <v>330.1910807414154</v>
+        <v>534.697260562599</v>
       </c>
       <c r="M45" t="n">
-        <v>729.6092173456784</v>
+        <v>546.7891136313474</v>
       </c>
       <c r="N45" t="n">
-        <v>1131.293373622612</v>
+        <v>948.4732699082808</v>
       </c>
       <c r="O45" t="n">
-        <v>1454.30688079717</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P45" t="n">
         <v>1513.730526286847</v>
@@ -7751,28 +7751,28 @@
         <v>1622.96628798761</v>
       </c>
       <c r="R45" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S45" t="n">
-        <v>1374.066492846507</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T45" t="n">
-        <v>1374.066492846507</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="U45" t="n">
-        <v>1145.863825383985</v>
+        <v>1280.128955991378</v>
       </c>
       <c r="V45" t="n">
-        <v>910.7117171522427</v>
+        <v>1044.976847759636</v>
       </c>
       <c r="W45" t="n">
-        <v>656.4743604240412</v>
+        <v>790.739491031434</v>
       </c>
       <c r="X45" t="n">
-        <v>448.6228602185083</v>
+        <v>582.8879908259012</v>
       </c>
       <c r="Y45" t="n">
-        <v>240.8625614535544</v>
+        <v>375.1276920609473</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>32.45932575975219</v>
+        <v>340.8414126554354</v>
       </c>
       <c r="C46" t="n">
-        <v>32.45932575975219</v>
+        <v>340.8414126554354</v>
       </c>
       <c r="D46" t="n">
-        <v>32.45932575975219</v>
+        <v>340.8414126554354</v>
       </c>
       <c r="E46" t="n">
-        <v>32.45932575975219</v>
+        <v>340.8414126554354</v>
       </c>
       <c r="F46" t="n">
-        <v>32.45932575975219</v>
+        <v>193.9514651575251</v>
       </c>
       <c r="G46" t="n">
-        <v>32.45932575975219</v>
+        <v>193.9514651575251</v>
       </c>
       <c r="H46" t="n">
         <v>32.45932575975219</v>
@@ -7827,31 +7827,31 @@
         <v>361.2466016029502</v>
       </c>
       <c r="Q46" t="n">
-        <v>296.5701361642186</v>
+        <v>361.2466016029502</v>
       </c>
       <c r="R46" t="n">
-        <v>261.5666648398646</v>
+        <v>361.2466016029502</v>
       </c>
       <c r="S46" t="n">
-        <v>261.5666648398646</v>
+        <v>340.8414126554354</v>
       </c>
       <c r="T46" t="n">
-        <v>32.45932575975219</v>
+        <v>340.8414126554354</v>
       </c>
       <c r="U46" t="n">
-        <v>32.45932575975219</v>
+        <v>340.8414126554354</v>
       </c>
       <c r="V46" t="n">
-        <v>32.45932575975219</v>
+        <v>340.8414126554354</v>
       </c>
       <c r="W46" t="n">
-        <v>32.45932575975219</v>
+        <v>340.8414126554354</v>
       </c>
       <c r="X46" t="n">
-        <v>32.45932575975219</v>
+        <v>340.8414126554354</v>
       </c>
       <c r="Y46" t="n">
-        <v>32.45932575975219</v>
+        <v>340.8414126554354</v>
       </c>
     </row>
   </sheetData>
@@ -8060,16 +8060,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>359.8407857361378</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,16 +8297,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N6" t="n">
-        <v>186.8580120236956</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8534,16 +8534,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,19 +8768,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344736</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>70.10119885733472</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>375.2055399582308</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>455.0874215304796</v>
+        <v>92.88803957954767</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344736</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026373</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>296.5127271079358</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9020,13 +9020,13 @@
         <v>455.0874215304797</v>
       </c>
       <c r="O15" t="n">
-        <v>357.6534580335538</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>73.77211287831322</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>99.73813450275541</v>
+        <v>99.7381345027554</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9245,7 +9245,7 @@
         <v>97.05174705344737</v>
       </c>
       <c r="K18" t="n">
-        <v>86.93262649026374</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9254,16 +9254,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>455.0874215304797</v>
+        <v>447.9178485742657</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>244.1351504444136</v>
+        <v>73.77211287831321</v>
       </c>
       <c r="Q18" t="n">
-        <v>99.73813450275541</v>
+        <v>99.7381345027554</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9482,7 +9482,7 @@
         <v>97.05174705344737</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>257.2956640563643</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9491,16 +9491,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>455.0874215304798</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O21" t="n">
-        <v>276.3535930874217</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>73.77211287831324</v>
+        <v>73.77211287831321</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>99.7381345027554</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9719,13 +9719,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>86.93262649026374</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>429.4962025068242</v>
       </c>
       <c r="N24" t="n">
         <v>455.0874215304797</v>
@@ -9734,7 +9734,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>215.0958621574522</v>
+        <v>73.77211287831321</v>
       </c>
       <c r="Q24" t="n">
         <v>99.7381345027554</v>
@@ -9953,28 +9953,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>118.9801165856208</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>390.125021165877</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O27" t="n">
-        <v>67.58604940343852</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>99.7381345027554</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10439,16 +10439,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>63.84875129258644</v>
+        <v>455.0874215304798</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>244.1351504444139</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>99.7381345027554</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10667,7 +10667,7 @@
         <v>97.05174705344737</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10676,13 +10676,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>203.2271928126414</v>
+        <v>455.0874215304798</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>244.1351504444139</v>
       </c>
       <c r="Q36" t="n">
         <v>99.7381345027554</v>
@@ -10901,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344736</v>
       </c>
       <c r="K39" t="n">
-        <v>86.93262649026374</v>
+        <v>86.93262649026371</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10913,13 +10913,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>455.0874215304798</v>
+        <v>380.7598033349564</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>215.0958621574524</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>99.7381345027554</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720737</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344736</v>
       </c>
       <c r="K42" t="n">
         <v>86.93262649026371</v>
@@ -11147,7 +11147,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>391.3774455544765</v>
       </c>
       <c r="N42" t="n">
         <v>455.0874215304797</v>
@@ -11156,7 +11156,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>215.0958621574524</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>99.7381345027554</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720737</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928323</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11375,16 +11375,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>97.05174705344736</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>86.93262649026371</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>74.46639351210632</v>
       </c>
       <c r="N45" t="n">
         <v>455.0874215304797</v>
@@ -11393,7 +11393,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>133.79599721132</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23260,7 +23260,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23269,13 +23269,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>1.134473744809156</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>8.97193213363164</v>
+        <v>8.971932133631526</v>
       </c>
       <c r="H11" t="n">
-        <v>99.28664770733099</v>
+        <v>58.81796748143557</v>
       </c>
       <c r="I11" t="n">
         <v>187.7594695105699</v>
@@ -23339,7 +23339,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -23348,16 +23348,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>106.8034629879498</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H12" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23390,7 +23390,7 @@
         <v>165.8272126914158</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>28.06309967993315</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23439,7 +23439,7 @@
         <v>147.5019580580808</v>
       </c>
       <c r="J13" t="n">
-        <v>74.67247646141476</v>
+        <v>74.67247646141475</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,22 +23460,22 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>64.02970078434429</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S13" t="n">
-        <v>123.3497577082892</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T13" t="n">
         <v>226.8162656893113</v>
       </c>
       <c r="U13" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>212.9428526967575</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23497,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23506,7 +23506,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809043</v>
       </c>
       <c r="G14" t="n">
         <v>414.7135041305339</v>
@@ -23542,13 +23542,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>42.22956650912995</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>220.5164804230398</v>
+        <v>112.569702336657</v>
       </c>
       <c r="U14" t="n">
         <v>251.2985142370684</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23573,13 +23573,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -23588,13 +23588,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23627,19 +23627,19 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>39.11035280625123</v>
+        <v>36.51913294484194</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23670,13 +23670,13 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H16" t="n">
-        <v>159.8772180037952</v>
+        <v>120.6824273767247</v>
       </c>
       <c r="I16" t="n">
         <v>147.5019580580808</v>
       </c>
       <c r="J16" t="n">
-        <v>74.67247646141476</v>
+        <v>74.67247646141475</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>64.02970078434429</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S16" t="n">
-        <v>123.3497577082892</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T16" t="n">
         <v>226.8162656893113</v>
       </c>
       <c r="U16" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23737,22 +23737,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>112.7640782351997</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>1.134473744809156</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>8.97193213363164</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,22 +23779,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>237.3379710431044</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23813,7 +23813,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>149.9531224974263</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -23822,7 +23822,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>50.949201609471</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -23858,13 +23858,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -23876,7 +23876,7 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23913,7 +23913,7 @@
         <v>147.5019580580808</v>
       </c>
       <c r="J19" t="n">
-        <v>74.67247646141476</v>
+        <v>74.67247646141475</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>64.0297007843443</v>
+        <v>64.02970078434429</v>
       </c>
       <c r="R19" t="n">
         <v>165.4090611368575</v>
@@ -23946,16 +23946,16 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V19" t="n">
-        <v>212.9428526967575</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>186.7332506408622</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23968,19 +23968,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>278.6148488808449</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>346.5372089685303</v>
       </c>
       <c r="G20" t="n">
         <v>414.7135041305339</v>
@@ -24016,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>195.5929138346465</v>
@@ -24028,7 +24028,7 @@
         <v>251.2985142370684</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24047,10 +24047,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>23.28319494221191</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24065,7 +24065,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>78.54202280713804</v>
@@ -24095,13 +24095,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>187.3948204949892</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24150,7 +24150,7 @@
         <v>147.5019580580808</v>
       </c>
       <c r="J22" t="n">
-        <v>74.67247646141476</v>
+        <v>74.67247646141475</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,16 +24171,16 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>64.0297007843443</v>
+        <v>64.02970078434429</v>
       </c>
       <c r="R22" t="n">
         <v>165.4090611368575</v>
       </c>
       <c r="S22" t="n">
-        <v>219.4103988718534</v>
+        <v>112.4956491391822</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U22" t="n">
         <v>286.3046124576955</v>
@@ -24189,13 +24189,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>187.8398609411364</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24211,19 +24211,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>1.1344737448091</v>
+        <v>127.1519295516297</v>
       </c>
       <c r="G23" t="n">
-        <v>8.971932133631583</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H23" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>187.7594695105699</v>
@@ -24259,7 +24259,7 @@
         <v>195.5929138346465</v>
       </c>
       <c r="T23" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>251.2985142370684</v>
@@ -24268,13 +24268,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>337.78369085637</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24284,25 +24284,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>110.7503997371547</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>137.0282495084215</v>
       </c>
       <c r="H24" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>78.54202280713804</v>
@@ -24335,13 +24335,13 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S24" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>198.8939788055617</v>
+        <v>21.18181338303339</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24408,25 +24408,25 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>64.02970078434429</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S25" t="n">
         <v>219.4103988718534</v>
       </c>
       <c r="T25" t="n">
-        <v>130.7556245257471</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U25" t="n">
-        <v>286.3046124576955</v>
+        <v>247.3282077095205</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24451,13 +24451,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>124.7689717304499</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>414.7135041305339</v>
+        <v>8.971932133631583</v>
       </c>
       <c r="H26" t="n">
         <v>333.4403157157206</v>
@@ -24490,25 +24490,25 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>106.1547911609873</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24521,19 +24521,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>150.9258268825501</v>
       </c>
       <c r="F27" t="n">
-        <v>5.611490122883055</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>137.0282495084215</v>
@@ -24569,13 +24569,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T27" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -24645,25 +24645,25 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>64.02970078434429</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S28" t="n">
-        <v>123.3497577082892</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T28" t="n">
         <v>226.8162656893113</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3046124576955</v>
+        <v>247.3282077095205</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24682,7 +24682,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24691,7 +24691,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>1.1344737448091</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>414.7135041305339</v>
@@ -24736,7 +24736,7 @@
         <v>220.5164804230398</v>
       </c>
       <c r="U29" t="n">
-        <v>233.3403440201881</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24745,10 +24745,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>311.3042502356939</v>
       </c>
     </row>
     <row r="30">
@@ -24767,19 +24767,19 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>104.6391979828194</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24812,7 +24812,7 @@
         <v>165.8272126914158</v>
       </c>
       <c r="T30" t="n">
-        <v>198.8939788055617</v>
+        <v>26.90018680828669</v>
       </c>
       <c r="U30" t="n">
         <v>225.9206407878966</v>
@@ -24824,7 +24824,7 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.7266695472104</v>
+        <v>61.63766533429784</v>
       </c>
       <c r="H31" t="n">
         <v>159.8772180037952</v>
@@ -24882,16 +24882,16 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>64.02970078434429</v>
       </c>
       <c r="R31" t="n">
         <v>165.4090611368575</v>
       </c>
       <c r="S31" t="n">
-        <v>184.756962260743</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U31" t="n">
         <v>286.3046124576955</v>
@@ -24928,13 +24928,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>63.22417646244116</v>
+        <v>1.134473744809043</v>
       </c>
       <c r="G32" t="n">
-        <v>414.7135041305339</v>
+        <v>8.971932133631526</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I32" t="n">
         <v>187.7594695105699</v>
@@ -24964,10 +24964,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -24976,10 +24976,10 @@
         <v>251.2985142370684</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>115.0873007090229</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -24995,28 +24995,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>157.0663974274272</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>94.60212430940086</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H33" t="n">
         <v>109.1906224126114</v>
       </c>
       <c r="I33" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25049,7 +25049,7 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -25064,7 +25064,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25077,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>60.33207136595664</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25128,13 +25128,13 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T34" t="n">
-        <v>226.8162656893113</v>
+        <v>153.4545059283734</v>
       </c>
       <c r="U34" t="n">
         <v>286.3046124576955</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25143,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25165,16 +25165,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809043</v>
       </c>
       <c r="G35" t="n">
-        <v>8.971932133631583</v>
+        <v>14.82496384139171</v>
       </c>
       <c r="H35" t="n">
         <v>333.4403157157206</v>
       </c>
       <c r="I35" t="n">
-        <v>126.9150022124809</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,19 +25201,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25222,7 +25222,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25232,16 +25232,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>26.46205974607219</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25283,13 +25283,13 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>44.15676256702835</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25301,7 +25301,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>19.74163823402887</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H37" t="n">
-        <v>149.6064425243204</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J37" t="n">
         <v>74.67247646141475</v>
@@ -25359,7 +25359,7 @@
         <v>64.02970078434429</v>
       </c>
       <c r="R37" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>219.4103988718534</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25402,13 +25402,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809043</v>
       </c>
       <c r="G38" t="n">
-        <v>8.971932133631526</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I38" t="n">
         <v>187.7594695105699</v>
@@ -25450,16 +25450,16 @@
         <v>251.2985142370684</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>319.0835291067399</v>
       </c>
       <c r="X38" t="n">
-        <v>211.3043229730613</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25472,19 +25472,19 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>14.97806209615074</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H39" t="n">
         <v>109.1906224126114</v>
@@ -25517,19 +25517,19 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>165.8272126914158</v>
+        <v>159.1079591185646</v>
       </c>
       <c r="T39" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -25566,13 +25566,13 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H40" t="n">
-        <v>120.5819502228691</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>74.67247646141475</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>64.02970078434427</v>
       </c>
       <c r="R40" t="n">
         <v>165.4090611368575</v>
@@ -25602,10 +25602,10 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T40" t="n">
-        <v>226.8162656893113</v>
+        <v>187.6214750622407</v>
       </c>
       <c r="U40" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25627,16 +25627,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>264.3554661756373</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -25675,25 +25675,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>195.5929138346465</v>
       </c>
       <c r="T41" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>109.6588881535604</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25706,28 +25706,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>24.7203022553403</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>83.38325075453172</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25763,16 +25763,16 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.7266695472104</v>
+        <v>9.474087561072196</v>
       </c>
       <c r="H43" t="n">
         <v>159.8772180037952</v>
@@ -25836,10 +25836,10 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T43" t="n">
-        <v>120.7272614763986</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U43" t="n">
         <v>286.3046124576955</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25873,19 +25873,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>1.134473744809043</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>8.971932133631526</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H44" t="n">
-        <v>140.0114066867784</v>
+        <v>50.56034790844774</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,22 +25912,22 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>220.5164804230398</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -25943,7 +25943,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -25961,7 +25961,7 @@
         <v>137.0282495084215</v>
       </c>
       <c r="H45" t="n">
-        <v>75.57991806406292</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I45" t="n">
         <v>78.54202280713804</v>
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -26000,7 +26000,7 @@
         <v>198.8939788055617</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>52.33889480304342</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26034,13 +26034,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>167.7266695472104</v>
       </c>
       <c r="H46" t="n">
-        <v>159.8772180037952</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>147.5019580580808</v>
@@ -26067,16 +26067,16 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>64.02970078434427</v>
       </c>
       <c r="R46" t="n">
-        <v>130.755624525747</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S46" t="n">
-        <v>219.4103988718534</v>
+        <v>199.2092618138137</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U46" t="n">
         <v>286.3046124576955</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>559699.1693619714</v>
+        <v>559699.1693619713</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>559699.1693619716</v>
+        <v>559699.1693619714</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>559699.1693619716</v>
+        <v>559699.1693619714</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>559699.1693619716</v>
+        <v>559699.1693619712</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>559699.1693619716</v>
+        <v>559699.1693619712</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>559699.1693619714</v>
+        <v>559699.1693619713</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>559699.1693619718</v>
+        <v>559699.1693619714</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>559699.1693619716</v>
+        <v>559699.1693619718</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185699</v>
+        <v>492625.06191857</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.0619185699</v>
+        <v>492625.0619185701</v>
       </c>
       <c r="D2" t="n">
         <v>492625.0619185698</v>
       </c>
       <c r="E2" t="n">
+        <v>256354.6764775277</v>
+      </c>
+      <c r="F2" t="n">
         <v>256354.6764775276</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>256354.6764775277</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>256354.6764775278</v>
+      </c>
+      <c r="I2" t="n">
+        <v>256354.6764775277</v>
+      </c>
+      <c r="J2" t="n">
         <v>256354.6764775276</v>
       </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
         <v>256354.6764775279</v>
-      </c>
-      <c r="I2" t="n">
-        <v>256354.6764775276</v>
-      </c>
-      <c r="J2" t="n">
-        <v>256354.6764775277</v>
-      </c>
-      <c r="K2" t="n">
-        <v>256354.6764775278</v>
       </c>
       <c r="L2" t="n">
         <v>256354.6764775277</v>
       </c>
       <c r="M2" t="n">
-        <v>256354.6764775276</v>
+        <v>256354.6764775278</v>
       </c>
       <c r="N2" t="n">
         <v>256354.6764775277</v>
       </c>
       <c r="O2" t="n">
-        <v>256354.6764775279</v>
+        <v>256354.6764775277</v>
       </c>
       <c r="P2" t="n">
-        <v>256354.6764775277</v>
+        <v>256354.6764775276</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>166940.1701252467</v>
+        <v>166940.1701252468</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910627</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>41050.69786244789</v>
+        <v>41050.69786244792</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,16 +26426,16 @@
         <v>346065.6887052709</v>
       </c>
       <c r="E4" t="n">
+        <v>68658.6648164248</v>
+      </c>
+      <c r="F4" t="n">
         <v>68658.66481642482</v>
-      </c>
-      <c r="F4" t="n">
-        <v>68658.6648164248</v>
       </c>
       <c r="G4" t="n">
         <v>68658.66481642482</v>
       </c>
       <c r="H4" t="n">
-        <v>68658.66481642482</v>
+        <v>68658.6648164248</v>
       </c>
       <c r="I4" t="n">
         <v>68658.66481642482</v>
@@ -26444,13 +26444,13 @@
         <v>68658.6648164248</v>
       </c>
       <c r="K4" t="n">
-        <v>68658.6648164248</v>
+        <v>68658.66481642482</v>
       </c>
       <c r="L4" t="n">
         <v>68658.66481642482</v>
       </c>
       <c r="M4" t="n">
-        <v>68658.6648164248</v>
+        <v>68658.66481642482</v>
       </c>
       <c r="N4" t="n">
         <v>68658.66481642482</v>
@@ -26478,19 +26478,19 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>27864.35291375756</v>
+        <v>27864.35291375758</v>
       </c>
       <c r="F5" t="n">
-        <v>27864.35291375756</v>
+        <v>27864.35291375758</v>
       </c>
       <c r="G5" t="n">
-        <v>27864.35291375756</v>
+        <v>27864.35291375758</v>
       </c>
       <c r="H5" t="n">
         <v>27864.35291375757</v>
       </c>
       <c r="I5" t="n">
-        <v>27864.35291375757</v>
+        <v>27864.35291375758</v>
       </c>
       <c r="J5" t="n">
         <v>27864.35291375757</v>
@@ -26502,7 +26502,7 @@
         <v>27864.35291375758</v>
       </c>
       <c r="M5" t="n">
-        <v>27864.35291375757</v>
+        <v>27864.35291375758</v>
       </c>
       <c r="N5" t="n">
         <v>27864.35291375758</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>17508.67291798961</v>
+        <v>17508.67291798967</v>
       </c>
       <c r="C6" t="n">
-        <v>98278.10444953735</v>
+        <v>98278.10444953758</v>
       </c>
       <c r="D6" t="n">
-        <v>98278.10444953729</v>
+        <v>98278.10444953723</v>
       </c>
       <c r="E6" t="n">
-        <v>-7108.511377901563</v>
+        <v>-16953.11077127829</v>
       </c>
       <c r="F6" t="n">
-        <v>159831.6587473454</v>
+        <v>149987.0593539685</v>
       </c>
       <c r="G6" t="n">
-        <v>159831.6587473452</v>
+        <v>149987.0593539685</v>
       </c>
       <c r="H6" t="n">
-        <v>159831.6587473455</v>
+        <v>149987.0593539687</v>
       </c>
       <c r="I6" t="n">
-        <v>159831.6587473453</v>
+        <v>149987.0593539685</v>
       </c>
       <c r="J6" t="n">
-        <v>96771.71614823914</v>
+        <v>86927.11675486217</v>
       </c>
       <c r="K6" t="n">
-        <v>159831.6587473454</v>
+        <v>149987.0593539687</v>
       </c>
       <c r="L6" t="n">
-        <v>159831.6587473453</v>
+        <v>149987.0593539685</v>
       </c>
       <c r="M6" t="n">
-        <v>118780.9608848973</v>
+        <v>108936.3614915207</v>
       </c>
       <c r="N6" t="n">
-        <v>159831.6587473452</v>
+        <v>149987.0593539685</v>
       </c>
       <c r="O6" t="n">
-        <v>159831.6587473455</v>
+        <v>149987.0593539685</v>
       </c>
       <c r="P6" t="n">
-        <v>159831.6587473452</v>
+        <v>149987.0593539684</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>146.571804419537</v>
+        <v>146.5718044195371</v>
       </c>
       <c r="F3" t="n">
-        <v>146.571804419537</v>
+        <v>146.5718044195371</v>
       </c>
       <c r="G3" t="n">
-        <v>146.571804419537</v>
+        <v>146.5718044195371</v>
       </c>
       <c r="H3" t="n">
-        <v>146.571804419537</v>
+        <v>146.5718044195371</v>
       </c>
       <c r="I3" t="n">
         <v>146.5718044195371</v>
@@ -26798,19 +26798,19 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
+        <v>405.7415719969024</v>
+      </c>
+      <c r="F4" t="n">
+        <v>405.7415719969024</v>
+      </c>
+      <c r="G4" t="n">
+        <v>405.7415719969024</v>
+      </c>
+      <c r="H4" t="n">
         <v>405.7415719969023</v>
       </c>
-      <c r="F4" t="n">
-        <v>405.7415719969023</v>
-      </c>
-      <c r="G4" t="n">
-        <v>405.7415719969023</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>405.7415719969024</v>
-      </c>
-      <c r="I4" t="n">
-        <v>405.7415719969023</v>
       </c>
       <c r="J4" t="n">
         <v>405.7415719969023</v>
@@ -26822,7 +26822,7 @@
         <v>405.7415719969024</v>
       </c>
       <c r="M4" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="N4" t="n">
         <v>405.7415719969024</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>146.571804419537</v>
+        <v>146.5718044195371</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776592</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>164.7272831192432</v>
+        <v>164.7272831192433</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,13 +27387,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>325.8706680867786</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -27423,19 +27423,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>288.9009862035136</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27460,19 +27460,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>82.58629569123474</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27505,19 +27505,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>115.8596556204643</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27560,7 +27560,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -27578,13 +27578,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>140.1870446435807</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27627,10 +27627,10 @@
         <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
-        <v>337.7589954776852</v>
+        <v>216.5306486674267</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27639,7 +27639,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27706,7 +27706,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -27715,7 +27715,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27754,13 +27754,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>201.900490044369</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>13.3566427570122</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27797,10 +27797,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27815,10 +27815,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>71.32518834398849</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -27833,7 +27833,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27861,7 +27861,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27873,10 +27873,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>142.265735089176</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27906,16 +27906,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
-        <v>265.5112539478202</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27949,13 +27949,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27988,10 +27988,10 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>84.81608375669853</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>197.7981193194529</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -28034,7 +28034,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>71.32518834398849</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -28076,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>117.5136203646585</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5892333846011535</v>
+        <v>0.5892333846011537</v>
       </c>
       <c r="H11" t="n">
-        <v>6.034486400046565</v>
+        <v>6.034486400046567</v>
       </c>
       <c r="I11" t="n">
-        <v>22.71642005983599</v>
+        <v>22.716420059836</v>
       </c>
       <c r="J11" t="n">
-        <v>50.0104469762922</v>
+        <v>50.01044697629222</v>
       </c>
       <c r="K11" t="n">
-        <v>74.95269614645905</v>
+        <v>74.95269614645908</v>
       </c>
       <c r="L11" t="n">
-        <v>92.98544734044661</v>
+        <v>92.98544734044664</v>
       </c>
       <c r="M11" t="n">
         <v>103.4642265438474</v>
       </c>
       <c r="N11" t="n">
-        <v>105.1383858978454</v>
+        <v>105.1383858978455</v>
       </c>
       <c r="O11" t="n">
-        <v>99.27919642971769</v>
+        <v>99.27919642971771</v>
       </c>
       <c r="P11" t="n">
-        <v>84.73249724737668</v>
+        <v>84.73249724737673</v>
       </c>
       <c r="Q11" t="n">
-        <v>63.63057666134786</v>
+        <v>63.63057666134788</v>
       </c>
       <c r="R11" t="n">
-        <v>37.01343159545224</v>
+        <v>37.01343159545225</v>
       </c>
       <c r="S11" t="n">
         <v>13.4271557515988</v>
       </c>
       <c r="T11" t="n">
-        <v>2.579369141091551</v>
+        <v>2.579369141091552</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04713867076809227</v>
+        <v>0.04713867076809229</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3152676547891929</v>
+        <v>0.315267654789193</v>
       </c>
       <c r="H12" t="n">
-        <v>3.0448218238851</v>
+        <v>3.044821823885102</v>
       </c>
       <c r="I12" t="n">
         <v>10.85461004427704</v>
       </c>
       <c r="J12" t="n">
-        <v>29.78587961321932</v>
+        <v>29.78587961321933</v>
       </c>
       <c r="K12" t="n">
-        <v>50.90881248409524</v>
+        <v>50.90881248409526</v>
       </c>
       <c r="L12" t="n">
-        <v>68.45318092253946</v>
+        <v>68.45318092253949</v>
       </c>
       <c r="M12" t="n">
-        <v>79.88163340864767</v>
+        <v>79.88163340864772</v>
       </c>
       <c r="N12" t="n">
-        <v>81.99586254975593</v>
+        <v>81.99586254975596</v>
       </c>
       <c r="O12" t="n">
-        <v>75.0101950410059</v>
+        <v>75.01019504100593</v>
       </c>
       <c r="P12" t="n">
-        <v>60.20229453601702</v>
+        <v>60.20229453601705</v>
       </c>
       <c r="Q12" t="n">
-        <v>40.2436395832661</v>
+        <v>40.24363958326612</v>
       </c>
       <c r="R12" t="n">
         <v>19.57424965436762</v>
       </c>
       <c r="S12" t="n">
-        <v>5.855958412422066</v>
+        <v>5.855958412422068</v>
       </c>
       <c r="T12" t="n">
         <v>1.270749889259948</v>
       </c>
       <c r="U12" t="n">
-        <v>0.02074129307823638</v>
+        <v>0.02074129307823639</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,46 +31910,46 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2643098112483455</v>
+        <v>0.2643098112483456</v>
       </c>
       <c r="H13" t="n">
-        <v>2.349954503644382</v>
+        <v>2.349954503644383</v>
       </c>
       <c r="I13" t="n">
-        <v>7.948516869177519</v>
+        <v>7.948516869177522</v>
       </c>
       <c r="J13" t="n">
-        <v>18.68670365525802</v>
+        <v>18.68670365525803</v>
       </c>
       <c r="K13" t="n">
-        <v>30.70799443412595</v>
+        <v>30.70799443412596</v>
       </c>
       <c r="L13" t="n">
-        <v>39.29566048323129</v>
+        <v>39.29566048323131</v>
       </c>
       <c r="M13" t="n">
-        <v>41.43176432141109</v>
+        <v>41.43176432141111</v>
       </c>
       <c r="N13" t="n">
-        <v>40.44660957039456</v>
+        <v>40.44660957039458</v>
       </c>
       <c r="O13" t="n">
-        <v>37.3589904117207</v>
+        <v>37.35899041172071</v>
       </c>
       <c r="P13" t="n">
-        <v>31.96707026225442</v>
+        <v>31.96707026225443</v>
       </c>
       <c r="Q13" t="n">
-        <v>22.13234246735009</v>
+        <v>22.1323424673501</v>
       </c>
       <c r="R13" t="n">
         <v>11.88433024031197</v>
       </c>
       <c r="S13" t="n">
-        <v>4.606199165118891</v>
+        <v>4.606199165118893</v>
       </c>
       <c r="T13" t="n">
-        <v>1.129323738970203</v>
+        <v>1.129323738970204</v>
       </c>
       <c r="U13" t="n">
         <v>0.01441689879536432</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5892333846011535</v>
+        <v>0.5892333846011537</v>
       </c>
       <c r="H14" t="n">
-        <v>6.034486400046565</v>
+        <v>6.034486400046567</v>
       </c>
       <c r="I14" t="n">
-        <v>22.71642005983599</v>
+        <v>22.716420059836</v>
       </c>
       <c r="J14" t="n">
-        <v>50.0104469762922</v>
+        <v>50.01044697629222</v>
       </c>
       <c r="K14" t="n">
-        <v>74.95269614645905</v>
+        <v>74.95269614645908</v>
       </c>
       <c r="L14" t="n">
-        <v>92.98544734044661</v>
+        <v>92.98544734044664</v>
       </c>
       <c r="M14" t="n">
         <v>103.4642265438474</v>
       </c>
       <c r="N14" t="n">
-        <v>105.1383858978454</v>
+        <v>105.1383858978455</v>
       </c>
       <c r="O14" t="n">
-        <v>99.27919642971769</v>
+        <v>99.27919642971771</v>
       </c>
       <c r="P14" t="n">
-        <v>84.73249724737668</v>
+        <v>84.73249724737673</v>
       </c>
       <c r="Q14" t="n">
-        <v>63.63057666134786</v>
+        <v>63.63057666134788</v>
       </c>
       <c r="R14" t="n">
-        <v>37.01343159545224</v>
+        <v>37.01343159545225</v>
       </c>
       <c r="S14" t="n">
         <v>13.4271557515988</v>
       </c>
       <c r="T14" t="n">
-        <v>2.579369141091551</v>
+        <v>2.579369141091552</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04713867076809227</v>
+        <v>0.04713867076809229</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3152676547891929</v>
+        <v>0.315267654789193</v>
       </c>
       <c r="H15" t="n">
-        <v>3.0448218238851</v>
+        <v>3.044821823885102</v>
       </c>
       <c r="I15" t="n">
         <v>10.85461004427704</v>
       </c>
       <c r="J15" t="n">
-        <v>29.78587961321932</v>
+        <v>29.78587961321933</v>
       </c>
       <c r="K15" t="n">
-        <v>50.90881248409524</v>
+        <v>50.90881248409526</v>
       </c>
       <c r="L15" t="n">
-        <v>68.45318092253946</v>
+        <v>68.45318092253949</v>
       </c>
       <c r="M15" t="n">
-        <v>79.88163340864767</v>
+        <v>79.88163340864772</v>
       </c>
       <c r="N15" t="n">
-        <v>81.99586254975593</v>
+        <v>81.99586254975596</v>
       </c>
       <c r="O15" t="n">
-        <v>75.0101950410059</v>
+        <v>75.01019504100593</v>
       </c>
       <c r="P15" t="n">
-        <v>60.20229453601702</v>
+        <v>60.20229453601705</v>
       </c>
       <c r="Q15" t="n">
-        <v>40.2436395832661</v>
+        <v>40.24363958326612</v>
       </c>
       <c r="R15" t="n">
         <v>19.57424965436762</v>
       </c>
       <c r="S15" t="n">
-        <v>5.855958412422066</v>
+        <v>5.855958412422068</v>
       </c>
       <c r="T15" t="n">
         <v>1.270749889259948</v>
       </c>
       <c r="U15" t="n">
-        <v>0.02074129307823638</v>
+        <v>0.02074129307823639</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,46 +32147,46 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2643098112483455</v>
+        <v>0.2643098112483456</v>
       </c>
       <c r="H16" t="n">
-        <v>2.349954503644382</v>
+        <v>2.349954503644383</v>
       </c>
       <c r="I16" t="n">
-        <v>7.948516869177519</v>
+        <v>7.948516869177522</v>
       </c>
       <c r="J16" t="n">
-        <v>18.68670365525802</v>
+        <v>18.68670365525803</v>
       </c>
       <c r="K16" t="n">
-        <v>30.70799443412595</v>
+        <v>30.70799443412596</v>
       </c>
       <c r="L16" t="n">
-        <v>39.29566048323129</v>
+        <v>39.29566048323131</v>
       </c>
       <c r="M16" t="n">
-        <v>41.43176432141109</v>
+        <v>41.43176432141111</v>
       </c>
       <c r="N16" t="n">
-        <v>40.44660957039456</v>
+        <v>40.44660957039458</v>
       </c>
       <c r="O16" t="n">
-        <v>37.3589904117207</v>
+        <v>37.35899041172071</v>
       </c>
       <c r="P16" t="n">
-        <v>31.96707026225442</v>
+        <v>31.96707026225443</v>
       </c>
       <c r="Q16" t="n">
-        <v>22.13234246735009</v>
+        <v>22.1323424673501</v>
       </c>
       <c r="R16" t="n">
         <v>11.88433024031197</v>
       </c>
       <c r="S16" t="n">
-        <v>4.606199165118891</v>
+        <v>4.606199165118893</v>
       </c>
       <c r="T16" t="n">
-        <v>1.129323738970203</v>
+        <v>1.129323738970204</v>
       </c>
       <c r="U16" t="n">
         <v>0.01441689879536432</v>
@@ -32226,22 +32226,22 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5892333846011535</v>
+        <v>0.5892333846011536</v>
       </c>
       <c r="H17" t="n">
-        <v>6.034486400046565</v>
+        <v>6.034486400046566</v>
       </c>
       <c r="I17" t="n">
-        <v>22.71642005983599</v>
+        <v>22.716420059836</v>
       </c>
       <c r="J17" t="n">
-        <v>50.0104469762922</v>
+        <v>50.01044697629221</v>
       </c>
       <c r="K17" t="n">
-        <v>74.95269614645905</v>
+        <v>74.95269614645906</v>
       </c>
       <c r="L17" t="n">
-        <v>92.98544734044661</v>
+        <v>92.98544734044663</v>
       </c>
       <c r="M17" t="n">
         <v>103.4642265438474</v>
@@ -32250,16 +32250,16 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O17" t="n">
-        <v>99.27919642971769</v>
+        <v>99.2791964297177</v>
       </c>
       <c r="P17" t="n">
-        <v>84.73249724737668</v>
+        <v>84.73249724737671</v>
       </c>
       <c r="Q17" t="n">
-        <v>63.63057666134786</v>
+        <v>63.63057666134787</v>
       </c>
       <c r="R17" t="n">
-        <v>37.01343159545224</v>
+        <v>37.01343159545225</v>
       </c>
       <c r="S17" t="n">
         <v>13.4271557515988</v>
@@ -32268,7 +32268,7 @@
         <v>2.579369141091551</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04713867076809227</v>
+        <v>0.04713867076809228</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32308,46 +32308,46 @@
         <v>0.3152676547891929</v>
       </c>
       <c r="H18" t="n">
-        <v>3.0448218238851</v>
+        <v>3.044821823885101</v>
       </c>
       <c r="I18" t="n">
         <v>10.85461004427704</v>
       </c>
       <c r="J18" t="n">
-        <v>29.78587961321932</v>
+        <v>29.78587961321933</v>
       </c>
       <c r="K18" t="n">
-        <v>50.90881248409524</v>
+        <v>50.90881248409525</v>
       </c>
       <c r="L18" t="n">
-        <v>68.45318092253946</v>
+        <v>68.45318092253947</v>
       </c>
       <c r="M18" t="n">
-        <v>79.88163340864767</v>
+        <v>79.8816334086477</v>
       </c>
       <c r="N18" t="n">
-        <v>81.99586254975593</v>
+        <v>81.99586254975594</v>
       </c>
       <c r="O18" t="n">
-        <v>75.0101950410059</v>
+        <v>75.01019504100591</v>
       </c>
       <c r="P18" t="n">
-        <v>60.20229453601702</v>
+        <v>60.20229453601704</v>
       </c>
       <c r="Q18" t="n">
-        <v>40.2436395832661</v>
+        <v>40.24363958326611</v>
       </c>
       <c r="R18" t="n">
         <v>19.57424965436762</v>
       </c>
       <c r="S18" t="n">
-        <v>5.855958412422066</v>
+        <v>5.855958412422067</v>
       </c>
       <c r="T18" t="n">
         <v>1.270749889259948</v>
       </c>
       <c r="U18" t="n">
-        <v>0.02074129307823638</v>
+        <v>0.02074129307823639</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,40 +32387,40 @@
         <v>0.2643098112483455</v>
       </c>
       <c r="H19" t="n">
-        <v>2.349954503644382</v>
+        <v>2.349954503644383</v>
       </c>
       <c r="I19" t="n">
-        <v>7.948516869177519</v>
+        <v>7.94851686917752</v>
       </c>
       <c r="J19" t="n">
-        <v>18.68670365525802</v>
+        <v>18.68670365525803</v>
       </c>
       <c r="K19" t="n">
         <v>30.70799443412595</v>
       </c>
       <c r="L19" t="n">
-        <v>39.29566048323129</v>
+        <v>39.2956604832313</v>
       </c>
       <c r="M19" t="n">
-        <v>41.43176432141109</v>
+        <v>41.4317643214111</v>
       </c>
       <c r="N19" t="n">
-        <v>40.44660957039456</v>
+        <v>40.44660957039457</v>
       </c>
       <c r="O19" t="n">
         <v>37.3589904117207</v>
       </c>
       <c r="P19" t="n">
-        <v>31.96707026225442</v>
+        <v>31.96707026225443</v>
       </c>
       <c r="Q19" t="n">
-        <v>22.13234246735009</v>
+        <v>22.1323424673501</v>
       </c>
       <c r="R19" t="n">
         <v>11.88433024031197</v>
       </c>
       <c r="S19" t="n">
-        <v>4.606199165118891</v>
+        <v>4.606199165118892</v>
       </c>
       <c r="T19" t="n">
         <v>1.129323738970203</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5892333846011534</v>
+        <v>0.5892333846011536</v>
       </c>
       <c r="H20" t="n">
-        <v>6.034486400046564</v>
+        <v>6.034486400046566</v>
       </c>
       <c r="I20" t="n">
-        <v>22.71642005983599</v>
+        <v>22.716420059836</v>
       </c>
       <c r="J20" t="n">
-        <v>50.01044697629219</v>
+        <v>50.01044697629221</v>
       </c>
       <c r="K20" t="n">
-        <v>74.95269614645902</v>
+        <v>74.95269614645906</v>
       </c>
       <c r="L20" t="n">
-        <v>92.9854473404466</v>
+        <v>92.98544734044663</v>
       </c>
       <c r="M20" t="n">
-        <v>103.4642265438473</v>
+        <v>103.4642265438474</v>
       </c>
       <c r="N20" t="n">
         <v>105.1383858978454</v>
       </c>
       <c r="O20" t="n">
-        <v>99.27919642971766</v>
+        <v>99.2791964297177</v>
       </c>
       <c r="P20" t="n">
-        <v>84.73249724737667</v>
+        <v>84.73249724737671</v>
       </c>
       <c r="Q20" t="n">
-        <v>63.63057666134785</v>
+        <v>63.63057666134787</v>
       </c>
       <c r="R20" t="n">
-        <v>37.01343159545223</v>
+        <v>37.01343159545225</v>
       </c>
       <c r="S20" t="n">
         <v>13.4271557515988</v>
       </c>
       <c r="T20" t="n">
-        <v>2.57936914109155</v>
+        <v>2.579369141091551</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04713867076809226</v>
+        <v>0.04713867076809228</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3152676547891928</v>
+        <v>0.3152676547891929</v>
       </c>
       <c r="H21" t="n">
-        <v>3.0448218238851</v>
+        <v>3.044821823885101</v>
       </c>
       <c r="I21" t="n">
-        <v>10.85461004427703</v>
+        <v>10.85461004427704</v>
       </c>
       <c r="J21" t="n">
-        <v>29.78587961321931</v>
+        <v>29.78587961321933</v>
       </c>
       <c r="K21" t="n">
-        <v>50.90881248409524</v>
+        <v>50.90881248409525</v>
       </c>
       <c r="L21" t="n">
-        <v>68.45318092253945</v>
+        <v>68.45318092253947</v>
       </c>
       <c r="M21" t="n">
-        <v>79.88163340864766</v>
+        <v>79.8816334086477</v>
       </c>
       <c r="N21" t="n">
-        <v>81.99586254975591</v>
+        <v>81.99586254975594</v>
       </c>
       <c r="O21" t="n">
-        <v>75.01019504100589</v>
+        <v>75.01019504100591</v>
       </c>
       <c r="P21" t="n">
-        <v>60.20229453601701</v>
+        <v>60.20229453601704</v>
       </c>
       <c r="Q21" t="n">
-        <v>40.24363958326609</v>
+        <v>40.24363958326611</v>
       </c>
       <c r="R21" t="n">
-        <v>19.57424965436761</v>
+        <v>19.57424965436762</v>
       </c>
       <c r="S21" t="n">
-        <v>5.855958412422065</v>
+        <v>5.855958412422067</v>
       </c>
       <c r="T21" t="n">
         <v>1.270749889259948</v>
       </c>
       <c r="U21" t="n">
-        <v>0.02074129307823638</v>
+        <v>0.02074129307823639</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2643098112483454</v>
+        <v>0.2643098112483455</v>
       </c>
       <c r="H22" t="n">
-        <v>2.349954503644382</v>
+        <v>2.349954503644383</v>
       </c>
       <c r="I22" t="n">
-        <v>7.948516869177517</v>
+        <v>7.94851686917752</v>
       </c>
       <c r="J22" t="n">
-        <v>18.68670365525802</v>
+        <v>18.68670365525803</v>
       </c>
       <c r="K22" t="n">
-        <v>30.70799443412594</v>
+        <v>30.70799443412595</v>
       </c>
       <c r="L22" t="n">
-        <v>39.29566048323129</v>
+        <v>39.2956604832313</v>
       </c>
       <c r="M22" t="n">
-        <v>41.43176432141109</v>
+        <v>41.4317643214111</v>
       </c>
       <c r="N22" t="n">
-        <v>40.44660957039456</v>
+        <v>40.44660957039457</v>
       </c>
       <c r="O22" t="n">
-        <v>37.35899041172069</v>
+        <v>37.3589904117207</v>
       </c>
       <c r="P22" t="n">
-        <v>31.96707026225442</v>
+        <v>31.96707026225443</v>
       </c>
       <c r="Q22" t="n">
-        <v>22.13234246735009</v>
+        <v>22.1323424673501</v>
       </c>
       <c r="R22" t="n">
-        <v>11.88433024031196</v>
+        <v>11.88433024031197</v>
       </c>
       <c r="S22" t="n">
-        <v>4.60619916511889</v>
+        <v>4.606199165118892</v>
       </c>
       <c r="T22" t="n">
         <v>1.129323738970203</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01441689879536431</v>
+        <v>0.01441689879536432</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5892333846011536</v>
+        <v>0.5892333846011538</v>
       </c>
       <c r="H38" t="n">
-        <v>6.034486400046566</v>
+        <v>6.034486400046569</v>
       </c>
       <c r="I38" t="n">
         <v>22.716420059836</v>
       </c>
       <c r="J38" t="n">
-        <v>50.01044697629221</v>
+        <v>50.01044697629223</v>
       </c>
       <c r="K38" t="n">
-        <v>74.95269614645906</v>
+        <v>74.95269614645909</v>
       </c>
       <c r="L38" t="n">
-        <v>92.98544734044663</v>
+        <v>92.98544734044667</v>
       </c>
       <c r="M38" t="n">
         <v>103.4642265438474</v>
       </c>
       <c r="N38" t="n">
-        <v>105.1383858978454</v>
+        <v>105.1383858978455</v>
       </c>
       <c r="O38" t="n">
-        <v>99.2791964297177</v>
+        <v>99.27919642971774</v>
       </c>
       <c r="P38" t="n">
-        <v>84.73249724737671</v>
+        <v>84.73249724737674</v>
       </c>
       <c r="Q38" t="n">
-        <v>63.63057666134787</v>
+        <v>63.6305766613479</v>
       </c>
       <c r="R38" t="n">
-        <v>37.01343159545225</v>
+        <v>37.01343159545226</v>
       </c>
       <c r="S38" t="n">
-        <v>13.4271557515988</v>
+        <v>13.42715575159881</v>
       </c>
       <c r="T38" t="n">
-        <v>2.579369141091551</v>
+        <v>2.579369141091552</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04713867076809228</v>
+        <v>0.0471386707680923</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.3152676547891929</v>
+        <v>0.3152676547891931</v>
       </c>
       <c r="H39" t="n">
-        <v>3.044821823885101</v>
+        <v>3.044821823885102</v>
       </c>
       <c r="I39" t="n">
         <v>10.85461004427704</v>
       </c>
       <c r="J39" t="n">
-        <v>29.78587961321933</v>
+        <v>29.78587961321934</v>
       </c>
       <c r="K39" t="n">
-        <v>50.90881248409525</v>
+        <v>50.90881248409527</v>
       </c>
       <c r="L39" t="n">
-        <v>68.45318092253947</v>
+        <v>68.4531809225395</v>
       </c>
       <c r="M39" t="n">
-        <v>79.8816334086477</v>
+        <v>79.88163340864773</v>
       </c>
       <c r="N39" t="n">
-        <v>81.99586254975594</v>
+        <v>81.99586254975597</v>
       </c>
       <c r="O39" t="n">
-        <v>75.01019504100591</v>
+        <v>75.01019504100594</v>
       </c>
       <c r="P39" t="n">
-        <v>60.20229453601704</v>
+        <v>60.20229453601706</v>
       </c>
       <c r="Q39" t="n">
-        <v>40.24363958326611</v>
+        <v>40.24363958326612</v>
       </c>
       <c r="R39" t="n">
-        <v>19.57424965436762</v>
+        <v>19.57424965436763</v>
       </c>
       <c r="S39" t="n">
-        <v>5.855958412422067</v>
+        <v>5.855958412422069</v>
       </c>
       <c r="T39" t="n">
-        <v>1.270749889259948</v>
+        <v>1.270749889259949</v>
       </c>
       <c r="U39" t="n">
         <v>0.02074129307823639</v>
@@ -34043,46 +34043,46 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2643098112483455</v>
+        <v>0.2643098112483456</v>
       </c>
       <c r="H40" t="n">
-        <v>2.349954503644383</v>
+        <v>2.349954503644384</v>
       </c>
       <c r="I40" t="n">
-        <v>7.94851686917752</v>
+        <v>7.948516869177523</v>
       </c>
       <c r="J40" t="n">
         <v>18.68670365525803</v>
       </c>
       <c r="K40" t="n">
-        <v>30.70799443412595</v>
+        <v>30.70799443412596</v>
       </c>
       <c r="L40" t="n">
-        <v>39.2956604832313</v>
+        <v>39.29566048323132</v>
       </c>
       <c r="M40" t="n">
-        <v>41.4317643214111</v>
+        <v>41.43176432141112</v>
       </c>
       <c r="N40" t="n">
-        <v>40.44660957039457</v>
+        <v>40.44660957039459</v>
       </c>
       <c r="O40" t="n">
-        <v>37.3589904117207</v>
+        <v>37.35899041172072</v>
       </c>
       <c r="P40" t="n">
-        <v>31.96707026225443</v>
+        <v>31.96707026225444</v>
       </c>
       <c r="Q40" t="n">
-        <v>22.1323424673501</v>
+        <v>22.13234246735011</v>
       </c>
       <c r="R40" t="n">
         <v>11.88433024031197</v>
       </c>
       <c r="S40" t="n">
-        <v>4.606199165118892</v>
+        <v>4.606199165118895</v>
       </c>
       <c r="T40" t="n">
-        <v>1.129323738970203</v>
+        <v>1.129323738970204</v>
       </c>
       <c r="U40" t="n">
         <v>0.01441689879536432</v>
@@ -34713,7 +34713,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34780,16 +34780,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>217.7067518141195</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
@@ -34798,7 +34798,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34944,7 +34944,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N5" t="n">
         <v>207.9338608153932</v>
@@ -35017,16 +35017,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N6" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35254,16 +35254,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35272,7 +35272,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>38.06115762167968</v>
+        <v>38.0611576216797</v>
       </c>
       <c r="K11" t="n">
         <v>179.0082576726433</v>
@@ -35418,7 +35418,7 @@
         <v>274.8802469209098</v>
       </c>
       <c r="M11" t="n">
-        <v>322.6315268094071</v>
+        <v>322.6315268094072</v>
       </c>
       <c r="N11" t="n">
         <v>313.0722467132387</v>
@@ -35430,7 +35430,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q11" t="n">
-        <v>53.63987744680306</v>
+        <v>53.63987744680308</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>177.5326105223149</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>300.7391464461245</v>
       </c>
       <c r="M12" t="n">
-        <v>312.9531394448602</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N12" t="n">
-        <v>405.7415719969023</v>
+        <v>43.54219004597032</v>
       </c>
       <c r="O12" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P12" t="n">
-        <v>244.6906557616239</v>
+        <v>244.690655761624</v>
       </c>
       <c r="Q12" t="n">
         <v>110.3391532330937</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>8.438502608243095</v>
+        <v>8.438502608243109</v>
       </c>
       <c r="L13" t="n">
         <v>66.88568574354744</v>
       </c>
       <c r="M13" t="n">
-        <v>81.01564128325168</v>
+        <v>81.0156412832517</v>
       </c>
       <c r="N13" t="n">
         <v>84.57878194962316</v>
       </c>
       <c r="O13" t="n">
-        <v>61.94411832576037</v>
+        <v>61.94411832576039</v>
       </c>
       <c r="P13" t="n">
-        <v>29.24562952714791</v>
+        <v>29.24562952714792</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>38.06115762167968</v>
+        <v>38.0611576216797</v>
       </c>
       <c r="K14" t="n">
         <v>179.0082576726433</v>
@@ -35655,7 +35655,7 @@
         <v>274.8802469209098</v>
       </c>
       <c r="M14" t="n">
-        <v>322.6315268094071</v>
+        <v>322.6315268094072</v>
       </c>
       <c r="N14" t="n">
         <v>313.0722467132387</v>
@@ -35667,7 +35667,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q14" t="n">
-        <v>53.63987744680306</v>
+        <v>53.63987744680308</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>177.5326105223149</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>300.7391464461244</v>
+        <v>226.4115282506011</v>
       </c>
       <c r="M15" t="n">
         <v>403.4526632366293</v>
       </c>
       <c r="N15" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="O15" t="n">
-        <v>290.0674086301152</v>
+        <v>326.276269873291</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>244.690655761624</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>8.438502608243095</v>
+        <v>8.438502608243109</v>
       </c>
       <c r="L16" t="n">
         <v>66.88568574354744</v>
       </c>
       <c r="M16" t="n">
-        <v>81.01564128325168</v>
+        <v>81.0156412832517</v>
       </c>
       <c r="N16" t="n">
         <v>84.57878194962316</v>
       </c>
       <c r="O16" t="n">
-        <v>61.94411832576037</v>
+        <v>61.94411832576039</v>
       </c>
       <c r="P16" t="n">
-        <v>29.24562952714791</v>
+        <v>29.24562952714792</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>38.06115762167968</v>
+        <v>38.06115762167969</v>
       </c>
       <c r="K17" t="n">
         <v>179.0082576726433</v>
@@ -35904,7 +35904,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q17" t="n">
-        <v>53.63987744680306</v>
+        <v>53.63987744680307</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35965,7 +35965,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L18" t="n">
         <v>300.7391464461244</v>
@@ -35974,13 +35974,13 @@
         <v>403.4526632366293</v>
       </c>
       <c r="N18" t="n">
-        <v>405.7415719969023</v>
+        <v>398.5719990406883</v>
       </c>
       <c r="O18" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P18" t="n">
-        <v>170.3630375661004</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36044,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>8.438502608243095</v>
+        <v>8.438502608243102</v>
       </c>
       <c r="L19" t="n">
         <v>66.88568574354744</v>
@@ -36056,10 +36056,10 @@
         <v>84.57878194962316</v>
       </c>
       <c r="O19" t="n">
-        <v>61.94411832576037</v>
+        <v>61.94411832576038</v>
       </c>
       <c r="P19" t="n">
-        <v>29.24562952714791</v>
+        <v>29.24562952714792</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,10 +36120,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>38.06115762167967</v>
+        <v>38.06115762167969</v>
       </c>
       <c r="K20" t="n">
-        <v>179.0082576726432</v>
+        <v>179.0082576726433</v>
       </c>
       <c r="L20" t="n">
         <v>274.8802469209098</v>
@@ -36141,7 +36141,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q20" t="n">
-        <v>53.63987744680304</v>
+        <v>53.63987744680307</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>177.5326105223148</v>
+        <v>170.3630375661006</v>
       </c>
       <c r="L21" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M21" t="n">
-        <v>403.4526632366292</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N21" t="n">
-        <v>405.7415719969024</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O21" t="n">
-        <v>208.7675436839831</v>
+        <v>326.276269873291</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>8.438502608243091</v>
+        <v>8.438502608243102</v>
       </c>
       <c r="L22" t="n">
-        <v>66.88568574354743</v>
+        <v>66.88568574354744</v>
       </c>
       <c r="M22" t="n">
         <v>81.01564128325168</v>
       </c>
       <c r="N22" t="n">
-        <v>84.57878194962315</v>
+        <v>84.57878194962316</v>
       </c>
       <c r="O22" t="n">
-        <v>61.94411832576036</v>
+        <v>61.94411832576038</v>
       </c>
       <c r="P22" t="n">
-        <v>29.2456295271479</v>
+        <v>29.24562952714792</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36439,22 +36439,22 @@
         <v>29.03928828696147</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L24" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M24" t="n">
-        <v>403.4526632366293</v>
+        <v>367.2438019934536</v>
       </c>
       <c r="N24" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="O24" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P24" t="n">
-        <v>141.323749279139</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>177.5326105223149</v>
       </c>
       <c r="L27" t="n">
-        <v>300.7391464461244</v>
+        <v>48.87891772828608</v>
       </c>
       <c r="M27" t="n">
         <v>403.4526632366293</v>
       </c>
       <c r="N27" t="n">
-        <v>340.7791716322996</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>326.276269873291</v>
       </c>
       <c r="P27" t="n">
         <v>244.690655761624</v>
       </c>
       <c r="Q27" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>177.5326105223149</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>300.7391464461244</v>
@@ -37159,16 +37159,16 @@
         <v>403.4526632366293</v>
       </c>
       <c r="N33" t="n">
-        <v>14.50290175900908</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="O33" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P33" t="n">
-        <v>244.690655761624</v>
+        <v>170.3630375661007</v>
       </c>
       <c r="Q33" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>177.5326105223149</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>300.7391464461244</v>
@@ -37396,13 +37396,13 @@
         <v>403.4526632366293</v>
       </c>
       <c r="N36" t="n">
-        <v>153.881343279064</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="O36" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P36" t="n">
-        <v>244.690655761624</v>
+        <v>170.3630375661007</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37542,28 +37542,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>38.06115762167969</v>
+        <v>38.06115762167971</v>
       </c>
       <c r="K38" t="n">
         <v>179.0082576726433</v>
       </c>
       <c r="L38" t="n">
-        <v>274.8802469209098</v>
+        <v>274.8802469209099</v>
       </c>
       <c r="M38" t="n">
-        <v>322.6315268094071</v>
+        <v>322.6315268094072</v>
       </c>
       <c r="N38" t="n">
         <v>313.0722467132387</v>
       </c>
       <c r="O38" t="n">
-        <v>249.9811662707763</v>
+        <v>249.9811662707764</v>
       </c>
       <c r="P38" t="n">
         <v>175.2982096635898</v>
       </c>
       <c r="Q38" t="n">
-        <v>53.63987744680307</v>
+        <v>53.63987744680309</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>300.7391464461244</v>
+        <v>300.7391464461245</v>
       </c>
       <c r="M39" t="n">
         <v>403.4526632366293</v>
       </c>
       <c r="N39" t="n">
-        <v>405.7415719969024</v>
+        <v>331.4139538013791</v>
       </c>
       <c r="O39" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P39" t="n">
-        <v>141.3237492791392</v>
+        <v>244.690655761624</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37703,22 +37703,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>8.438502608243102</v>
+        <v>8.438502608243112</v>
       </c>
       <c r="L40" t="n">
-        <v>66.88568574354744</v>
+        <v>66.88568574354746</v>
       </c>
       <c r="M40" t="n">
-        <v>81.01564128325168</v>
+        <v>81.01564128325171</v>
       </c>
       <c r="N40" t="n">
-        <v>84.57878194962316</v>
+        <v>84.57878194962319</v>
       </c>
       <c r="O40" t="n">
-        <v>61.94411832576038</v>
+        <v>61.94411832576039</v>
       </c>
       <c r="P40" t="n">
-        <v>29.24562952714792</v>
+        <v>29.24562952714793</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>38.06115762167971</v>
+        <v>38.0611576216796</v>
       </c>
       <c r="K41" t="n">
         <v>179.0082576726433</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>29.03928828696148</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37867,7 +37867,7 @@
         <v>300.7391464461245</v>
       </c>
       <c r="M42" t="n">
-        <v>403.4526632366293</v>
+        <v>329.1250450411059</v>
       </c>
       <c r="N42" t="n">
         <v>405.7415719969024</v>
@@ -37876,7 +37876,7 @@
         <v>326.276269873291</v>
       </c>
       <c r="P42" t="n">
-        <v>141.3237492791392</v>
+        <v>244.690655761624</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>38.06115762167971</v>
+        <v>38.0611576216796</v>
       </c>
       <c r="K44" t="n">
         <v>179.0082576726433</v>
@@ -38025,7 +38025,7 @@
         <v>274.8802469209099</v>
       </c>
       <c r="M44" t="n">
-        <v>322.631526809407</v>
+        <v>322.6315268094072</v>
       </c>
       <c r="N44" t="n">
         <v>313.0722467132387</v>
@@ -38095,16 +38095,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>29.03928828696148</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L45" t="n">
         <v>300.7391464461245</v>
       </c>
       <c r="M45" t="n">
-        <v>403.4526632366293</v>
+        <v>12.21399299873574</v>
       </c>
       <c r="N45" t="n">
         <v>405.7415719969024</v>
@@ -38113,7 +38113,7 @@
         <v>326.276269873291</v>
       </c>
       <c r="P45" t="n">
-        <v>60.02388433300687</v>
+        <v>244.690655761624</v>
       </c>
       <c r="Q45" t="n">
         <v>110.3391532330937</v>
